--- a/scorebot-converter/scorebot-validation/shacl/scorebot-shacl.xlsx
+++ b/scorebot-converter/scorebot-validation/shacl/scorebot-shacl.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="420">
   <si>
     <t>PREFIX</t>
   </si>
@@ -505,6 +505,12 @@
   </si>
   <si>
     <t xml:space="preserve">U65 has geographical context</t>
+  </si>
+  <si>
+    <t>mus:U66_has_historical_context</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U66 has historical context</t>
   </si>
   <si>
     <t>mus:U12_has_genre</t>
@@ -1282,7 +1288,7 @@
   <numFmts count="1">
     <numFmt numFmtId="160" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* \-??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="16">
     <font>
       <name val="Arial"/>
       <color theme="1"/>
@@ -1290,7 +1296,6 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <color indexed="64"/>
       <sz val="11.000000"/>
     </font>
     <font>
@@ -1307,11 +1312,6 @@
       <name val="Calibri"/>
       <color rgb="FF9C5700"/>
       <sz val="11.000000"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <color indexed="64"/>
-      <sz val="10.000000"/>
     </font>
     <font>
       <name val="Cambria"/>
@@ -1331,7 +1331,6 @@
     <font>
       <name val="Arial"/>
       <b/>
-      <color indexed="64"/>
       <sz val="10.000000"/>
     </font>
     <font>
@@ -1347,18 +1346,12 @@
     <font>
       <name val="Arial"/>
       <b/>
-      <sz val="10.000000"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <b/>
       <color indexed="4"/>
       <sz val="10.000000"/>
     </font>
     <font>
       <name val="Cambria"/>
       <i/>
-      <color indexed="64"/>
       <sz val="9.000000"/>
     </font>
     <font>
@@ -1367,12 +1360,6 @@
     </font>
     <font>
       <name val="Cambria"/>
-      <color indexed="64"/>
-      <sz val="10.000000"/>
-    </font>
-    <font>
-      <name val="Cambria"/>
-      <color indexed="64"/>
       <sz val="9.000000"/>
     </font>
     <font>
@@ -1636,25 +1623,25 @@
     <xf fontId="2" fillId="0" borderId="0" numFmtId="160" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
     <xf fontId="4" fillId="21" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
     <xf fontId="4" fillId="21" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
-    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="80">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="55"/>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="34" applyFont="1" applyProtection="1"/>
@@ -1663,15 +1650,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="8" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="7" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="7" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="6" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="7" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="6" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1680,23 +1667,23 @@
     <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="8" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="8" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf fontId="8" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="8" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="7" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="9" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="8" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="9" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="8" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf fontId="9" fillId="4" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="8" fillId="4" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1704,7 +1691,7 @@
     </xf>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="61" applyFont="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="10" fillId="22" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="9" fillId="22" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf fontId="0" fillId="22" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
@@ -1714,11 +1701,11 @@
     <xf fontId="0" fillId="22" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="11" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="11" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="10" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="10" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="11" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="10" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1"/>
@@ -1738,76 +1725,64 @@
     <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf fontId="7" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf fontId="8" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf fontId="8" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="8" fillId="23" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf fontId="12" fillId="23" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="8" fillId="23" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf fontId="12" fillId="23" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="8" fillId="23" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf fontId="12" fillId="23" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="11" fillId="4" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf fontId="12" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="12" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf fontId="13" fillId="4" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf fontId="12" fillId="4" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="10" fillId="24" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="9" fillId="24" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="10" fillId="24" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="9" fillId="24" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="10" fillId="24" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="9" fillId="24" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="10" fillId="24" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="9" fillId="24" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="10" fillId="24" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="9" fillId="24" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf fontId="0" fillId="25" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="14" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="12" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf fontId="0" fillId="26" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="25" borderId="0" numFmtId="2" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="2" fillId="25" borderId="0" numFmtId="2" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="25" borderId="0" numFmtId="0" xfId="47" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="2" fillId="25" borderId="0" numFmtId="0" xfId="47" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="25" borderId="2" numFmtId="0" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="25" borderId="2" numFmtId="0" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1815,50 +1790,54 @@
     <xf fontId="0" fillId="26" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="15" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="15" fillId="25" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="15" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="13" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="13" fillId="25" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="13" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf fontId="15" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="13" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="15" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="13" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="15" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="13" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="16" fillId="25" borderId="0" numFmtId="0" xfId="47" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="13" fillId="25" borderId="0" numFmtId="0" xfId="47" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="16" fillId="25" borderId="2" numFmtId="0" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="13" fillId="25" borderId="2" numFmtId="0" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="17" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="14" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="17" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="14" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="10" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="9" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="10" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="9" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="5" fillId="25" borderId="0" numFmtId="2" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="2" fillId="25" borderId="0" numFmtId="2" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="10" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="9" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="16" fillId="25" borderId="0" numFmtId="2" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="13" fillId="25" borderId="0" numFmtId="2" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="18" fillId="27" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="15" fillId="27" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="49" applyFont="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3206,7 +3185,7 @@
   </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.78750000000000009" right="0.78750000000000009" top="1.05277777777778" bottom="1.05277777777778" header="0.78750000000000009" footer="0.78750000000000009"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="1" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="1" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
@@ -3389,46 +3368,46 @@
       <c r="Q6" s="42"/>
     </row>
     <row r="7" ht="38.25">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="G7" s="43" t="s">
+      <c r="G7" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="H7" s="43" t="s">
+      <c r="H7" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="I7" s="46" t="s">
+      <c r="I7" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="J7" s="44" t="s">
+      <c r="J7" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="K7" s="44" t="s">
+      <c r="K7" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="L7" s="44" t="s">
+      <c r="L7" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="M7" s="44" t="s">
+      <c r="M7" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="N7" s="44" t="s">
+      <c r="N7" s="18" t="s">
         <v>123</v>
       </c>
       <c r="O7" s="17" t="s">
@@ -3443,2919 +3422,2999 @@
       <c r="R7" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="S7" s="44" t="s">
+      <c r="S7" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="T7" s="44" t="s">
+      <c r="T7" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="U7" s="44" t="s">
+      <c r="U7" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="V7" s="44" t="s">
+      <c r="V7" s="18" t="s">
         <v>130</v>
       </c>
       <c r="W7" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="X7" s="44" t="s">
+      <c r="X7" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="Y7" s="44" t="s">
+      <c r="Y7" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="Z7" s="44" t="s">
+      <c r="Z7" s="18" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="8" s="47" customFormat="1" ht="15">
-      <c r="A8" s="47" t="s">
+    <row r="8" s="44" customFormat="1" ht="15">
+      <c r="A8" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="E8" s="47"/>
-      <c r="F8" s="48"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="Q8" s="49"/>
-      <c r="Y8" s="50"/>
-    </row>
-    <row r="9" s="52" customFormat="1" ht="25.5">
-      <c r="A9" s="53" t="str">
-        <f t="shared" ref="A9:A25" si="0">CONCATENATE("mus:P",ROW(A9))</f>
+      <c r="E8" s="44"/>
+      <c r="F8" s="45"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="Q8" s="46"/>
+      <c r="Y8" s="47"/>
+    </row>
+    <row r="9" s="49" customFormat="1" ht="25.5">
+      <c r="A9" s="50" t="str">
+        <f t="shared" ref="A9:A26" si="0">CONCATENATE("mus:P",ROW(A9))</f>
         <v>mus:P9</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="49" t="s">
         <v>59</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="D9" s="52" t="s">
+      <c r="D9" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="F9" s="54" t="s">
+      <c r="F9" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="G9" s="54"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="56" t="s">
+      <c r="G9" s="51"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="K9" s="57" t="str">
-        <f t="shared" ref="K9:K25" si="1">IF(LEFT($D9,SEARCH("..",$D9,1)-1)="n","",IF(LEFT($D9,SEARCH("..",$D9,1)-1)="0","",LEFT($D9,SEARCH("..",$D9,1)-1)))</f>
+      <c r="K9" s="54" t="str">
+        <f t="shared" ref="K9:K26" si="1">IF(LEFT($D9,SEARCH("..",$D9,1)-1)="n","",IF(LEFT($D9,SEARCH("..",$D9,1)-1)="0","",LEFT($D9,SEARCH("..",$D9,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L9" s="57" t="str">
-        <f t="shared" ref="L9:L25" si="2">IF(RIGHT($D9,SEARCH("..",$D9,1)-1)="n","",IF(RIGHT($D9,SEARCH("..",$D9,1)-1)="0","",RIGHT($D9,SEARCH("..",$D9,1)-1)))</f>
+      <c r="L9" s="54" t="str">
+        <f t="shared" ref="L9:L26" si="2">IF(RIGHT($D9,SEARCH("..",$D9,1)-1)="n","",IF(RIGHT($D9,SEARCH("..",$D9,1)-1)="0","",RIGHT($D9,SEARCH("..",$D9,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="M9" s="58" t="str">
+      <c r="M9" s="55" t="str">
         <f>IF(IFERROR(VLOOKUP(#REF!,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N9" s="58" t="str">
+      <c r="N9" s="55" t="str">
         <f>IF(M9="sh:Literal",#REF!,"")</f>
         <v/>
       </c>
-      <c r="O9" s="58" t="str">
-        <f t="shared" ref="O9:O25" si="3">IF($M9="sh:IRI",IF($E9&lt;&gt;"",$E9,""),"")</f>
-        <v/>
-      </c>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="59" t="str">
+      <c r="O9" s="55" t="str">
+        <f t="shared" ref="O9:O26" si="3">IF($M9="sh:IRI",IF($E9&lt;&gt;"",$E9,""),"")</f>
+        <v/>
+      </c>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="56" t="str">
         <f>IF($M9&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",#REF!)-1,0)=0,"","1"))</f>
         <v/>
       </c>
-      <c r="X9" s="60"/>
-    </row>
-    <row r="10" s="52" customFormat="1">
-      <c r="A10" s="53" t="str">
+      <c r="X9" s="57"/>
+    </row>
+    <row r="10" s="49" customFormat="1">
+      <c r="A10" s="50" t="str">
         <f t="shared" si="0"/>
         <v>mus:P10</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="D10" s="61" t="s">
+      <c r="D10" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="E10" s="55"/>
-      <c r="F10" s="54" t="s">
+      <c r="E10" s="52"/>
+      <c r="F10" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="57" t="str">
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="54" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L10" s="57" t="str">
+      <c r="L10" s="54" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M10" s="58" t="str">
+      <c r="M10" s="55" t="str">
         <f>IF(IFERROR(VLOOKUP($E10,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N10" s="58" t="str">
-        <f t="shared" ref="N10:N47" si="4">IF(M10="sh:Literal",E10,"")</f>
-        <v/>
-      </c>
-      <c r="O10" s="58" t="str">
+      <c r="N10" s="55" t="str">
+        <f t="shared" ref="N10:N48" si="4">IF(M10="sh:Literal",E10,"")</f>
+        <v/>
+      </c>
+      <c r="O10" s="55" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P10" s="58"/>
-      <c r="Q10" s="59" t="str">
+      <c r="P10" s="55"/>
+      <c r="Q10" s="56" t="str">
         <f t="shared" ref="Q10:Q73" si="5">IF($M10&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E10)-1,0)=0,"","1"))</f>
         <v/>
       </c>
-      <c r="X10" s="60"/>
+      <c r="X10" s="57"/>
     </row>
     <row r="11">
-      <c r="A11" s="53" t="str">
+      <c r="A11" s="50" t="str">
         <f t="shared" si="0"/>
         <v>mus:P11</v>
       </c>
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="49" t="s">
         <v>59</v>
       </c>
       <c r="C11" t="s">
         <v>142</v>
       </c>
-      <c r="D11" s="52" t="s">
+      <c r="D11" s="49" t="s">
         <v>136</v>
       </c>
       <c r="E11" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="54" t="s">
+      <c r="F11" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="J11" s="60"/>
-      <c r="K11" s="57" t="str">
+      <c r="J11" s="57"/>
+      <c r="K11" s="54" t="str">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L11" s="57" t="str">
+      <c r="L11" s="54" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M11" s="58" t="str">
+      <c r="M11" s="55" t="str">
         <f>IF(IFERROR(VLOOKUP($E11,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N11" s="58" t="str">
+      <c r="N11" s="55" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O11" s="58" t="str">
+      <c r="O11" s="55" t="str">
         <f t="shared" si="3"/>
         <v>mus:M156_Title_Statement</v>
       </c>
-      <c r="P11" s="58"/>
-      <c r="Q11" s="59" t="str">
+      <c r="P11" s="55"/>
+      <c r="Q11" s="56" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="12" ht="38.25">
-      <c r="A12" s="53" t="str">
+      <c r="A12" s="50" t="str">
         <f t="shared" si="0"/>
         <v>mus:P12</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="49" t="s">
         <v>59</v>
       </c>
       <c r="C12" t="s">
         <v>144</v>
       </c>
-      <c r="D12" s="52" t="s">
+      <c r="D12" s="49" t="s">
         <v>136</v>
       </c>
       <c r="E12" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="54" t="s">
+      <c r="F12" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="J12" s="63" t="s">
+      <c r="J12" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="K12" s="57" t="str">
+      <c r="K12" s="54" t="str">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L12" s="57" t="str">
+      <c r="L12" s="54" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M12" s="58" t="str">
+      <c r="M12" s="55" t="str">
         <f>IF(IFERROR(VLOOKUP($E12,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N12" s="58" t="str">
+      <c r="N12" s="55" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O12" s="58" t="str">
+      <c r="O12" s="55" t="str">
         <f t="shared" si="3"/>
         <v>mus:M157_Statement_of_Responsibility</v>
       </c>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="59" t="str">
+      <c r="P12" s="55"/>
+      <c r="Q12" s="56" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="53" t="str">
+      <c r="A13" s="50" t="str">
         <f t="shared" si="0"/>
         <v>mus:P13</v>
       </c>
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="49" t="s">
         <v>59</v>
       </c>
       <c r="C13" t="s">
         <v>147</v>
       </c>
-      <c r="D13" s="52" t="s">
+      <c r="D13" s="49" t="s">
         <v>148</v>
       </c>
       <c r="E13" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="54" t="s">
+      <c r="F13" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="J13" s="60"/>
-      <c r="K13" s="57" t="str">
+      <c r="J13" s="57"/>
+      <c r="K13" s="54" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L13" s="57" t="str">
+      <c r="L13" s="54" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M13" s="58" t="str">
+      <c r="M13" s="55" t="str">
         <f>IF(IFERROR(VLOOKUP($E13,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N13" s="58" t="str">
+      <c r="N13" s="55" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O13" s="58" t="str">
+      <c r="O13" s="55" t="str">
         <f t="shared" si="3"/>
         <v>ecrm:E35_Title</v>
       </c>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="59" t="str">
+      <c r="P13" s="55"/>
+      <c r="Q13" s="56" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="53" t="str">
+      <c r="A14" s="50" t="str">
         <f t="shared" si="0"/>
         <v>mus:P14</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="49" t="s">
         <v>59</v>
       </c>
       <c r="C14" t="s">
         <v>150</v>
       </c>
-      <c r="D14" s="52" t="s">
+      <c r="D14" s="49" t="s">
         <v>140</v>
       </c>
       <c r="E14" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="54" t="s">
+      <c r="F14" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="J14" s="60"/>
-      <c r="K14" s="57" t="str">
+      <c r="J14" s="57"/>
+      <c r="K14" s="54" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L14" s="57" t="str">
+      <c r="L14" s="54" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M14" s="58" t="str">
+      <c r="M14" s="55" t="str">
         <f>IF(IFERROR(VLOOKUP($E14,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N14" s="58" t="str">
+      <c r="N14" s="55" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O14" s="58" t="str">
+      <c r="O14" s="55" t="str">
         <f t="shared" si="3"/>
         <v>ecrm:E35_Title</v>
       </c>
-      <c r="P14" s="58"/>
-      <c r="Q14" s="59" t="str">
+      <c r="P14" s="55"/>
+      <c r="Q14" s="56" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="53" t="str">
+      <c r="A15" s="50" t="str">
         <f t="shared" si="0"/>
         <v>mus:P15</v>
       </c>
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="49" t="s">
         <v>59</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="49" t="s">
         <v>148</v>
       </c>
       <c r="E15" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="54" t="s">
+      <c r="F15" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="J15" s="60"/>
-      <c r="K15" s="57" t="str">
+      <c r="J15" s="57"/>
+      <c r="K15" s="54" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L15" s="57" t="str">
+      <c r="L15" s="54" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M15" s="58" t="str">
+      <c r="M15" s="55" t="str">
         <f>IF(IFERROR(VLOOKUP($E15,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N15" s="58" t="str">
+      <c r="N15" s="55" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O15" s="58" t="str">
+      <c r="O15" s="55" t="str">
         <f t="shared" si="3"/>
         <v>mus:M159_Edition_Statement</v>
       </c>
-      <c r="P15" s="58"/>
-      <c r="Q15" s="59" t="str">
+      <c r="P15" s="55"/>
+      <c r="Q15" s="56" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="16" ht="38.25">
-      <c r="A16" s="53" t="str">
+      <c r="A16" s="50" t="str">
         <f t="shared" si="0"/>
         <v>mus:P16</v>
       </c>
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="49" t="s">
         <v>59</v>
       </c>
       <c r="C16" t="s">
         <v>154</v>
       </c>
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="49" t="s">
         <v>148</v>
       </c>
       <c r="E16" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="F16" s="54" t="s">
+      <c r="F16" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="J16" s="63" t="s">
+      <c r="J16" s="59" t="s">
         <v>156</v>
       </c>
-      <c r="K16" s="57" t="str">
+      <c r="K16" s="54" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L16" s="57" t="str">
+      <c r="L16" s="54" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M16" s="58" t="str">
+      <c r="M16" s="55" t="str">
         <f>IF(IFERROR(VLOOKUP($E16,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N16" s="58" t="str">
+      <c r="N16" s="55" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O16" s="58" t="str">
+      <c r="O16" s="55" t="str">
         <f t="shared" si="3"/>
         <v>mus:M163_Music_Format_Statement</v>
       </c>
-      <c r="P16" s="58"/>
-      <c r="Q16" s="59" t="str">
+      <c r="P16" s="55"/>
+      <c r="Q16" s="56" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="53" t="str">
+      <c r="A17" s="50" t="str">
         <f t="shared" si="0"/>
         <v>mus:P17</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="49" t="s">
         <v>59</v>
       </c>
       <c r="C17" t="s">
         <v>157</v>
       </c>
-      <c r="D17" s="52" t="s">
+      <c r="D17" s="49" t="s">
         <v>136</v>
       </c>
       <c r="E17" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="F17" s="54" t="s">
+      <c r="F17" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="J17" s="63" t="s">
+      <c r="J17" s="59" t="s">
         <v>159</v>
       </c>
-      <c r="K17" s="57" t="str">
+      <c r="K17" s="54" t="str">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L17" s="57" t="str">
+      <c r="L17" s="54" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M17" s="58" t="str">
+      <c r="M17" s="55" t="str">
         <f>IF(IFERROR(VLOOKUP($E17,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N17" s="58" t="str">
+      <c r="N17" s="55" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O17" s="58" t="str">
+      <c r="O17" s="55" t="str">
         <f t="shared" si="3"/>
         <v>mus:M160_Publication_Statement</v>
       </c>
-      <c r="P17" s="58"/>
-      <c r="Q17" s="59" t="str">
+      <c r="P17" s="55"/>
+      <c r="Q17" s="56" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="53" t="str">
+      <c r="A18" s="50" t="str">
         <f t="shared" si="0"/>
         <v>mus:P18</v>
       </c>
-      <c r="B18" s="52" t="s">
+      <c r="B18" s="49" t="s">
         <v>59</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="D18" s="52" t="s">
+      <c r="D18" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="F18" s="54" t="s">
+      <c r="F18" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="J18" s="60"/>
-      <c r="K18" s="57" t="str">
+      <c r="J18" s="57"/>
+      <c r="K18" s="54" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L18" s="57" t="str">
+      <c r="L18" s="54" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M18" s="58" t="str">
+      <c r="M18" s="55" t="str">
         <f>IF(IFERROR(VLOOKUP($E18,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N18" s="58" t="str">
+      <c r="N18" s="55" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O18" s="58" t="str">
+      <c r="O18" s="55" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P18" s="58"/>
-      <c r="Q18" s="59" t="str">
+      <c r="P18" s="55"/>
+      <c r="Q18" s="56" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="53" t="str">
-        <f t="shared" si="0"/>
+      <c r="A19" s="50" t="str">
+        <f>CONCATENATE("mus:P",ROW(A19))</f>
         <v>mus:P19</v>
       </c>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="60" t="s">
         <v>162</v>
       </c>
-      <c r="D19" s="52" t="s">
+      <c r="D19" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="F19" s="54" t="s">
+      <c r="E19"/>
+      <c r="F19" s="51" t="s">
         <v>163</v>
       </c>
-      <c r="J19" s="60"/>
-      <c r="K19" s="57" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L19" s="57" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M19" s="58" t="str">
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="54" t="str">
+        <f>IF(LEFT($D19,SEARCH("..",$D19,1)-1)="n","",IF(LEFT($D19,SEARCH("..",$D19,1)-1)="0","",LEFT($D19,SEARCH("..",$D19,1)-1)))</f>
+        <v/>
+      </c>
+      <c r="L19" s="54" t="str">
+        <f>IF(RIGHT($D19,SEARCH("..",$D19,1)-1)="n","",IF(RIGHT($D19,SEARCH("..",$D19,1)-1)="0","",RIGHT($D19,SEARCH("..",$D19,1)-1)))</f>
+        <v/>
+      </c>
+      <c r="M19" s="55" t="str">
         <f>IF(IFERROR(VLOOKUP($E19,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N19" s="58" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="O19" s="58" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P19" s="58"/>
-      <c r="Q19" s="59" t="str">
-        <f t="shared" si="5"/>
+      <c r="N19" s="55" t="str">
+        <f>IF(M19="sh:Literal",E19,"")</f>
+        <v/>
+      </c>
+      <c r="O19" s="55" t="str">
+        <f>IF($M19="sh:IRI",IF($E19&lt;&gt;"",$E19,""),"")</f>
+        <v/>
+      </c>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="56" t="str">
+        <f>IF($M19&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E19)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="53" t="str">
+      <c r="A20" s="50" t="str">
         <f t="shared" si="0"/>
         <v>mus:P20</v>
       </c>
-      <c r="B20" s="52" t="s">
+      <c r="B20" s="49" t="s">
         <v>59</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="D20" s="52" t="s">
+      <c r="D20" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="F20" s="54" t="s">
+      <c r="F20" s="51" t="s">
         <v>165</v>
       </c>
-      <c r="J20" s="60"/>
-      <c r="K20" s="57" t="str">
+      <c r="J20" s="57"/>
+      <c r="K20" s="54" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L20" s="57" t="str">
+      <c r="L20" s="54" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M20" s="58" t="str">
+      <c r="M20" s="55" t="str">
         <f>IF(IFERROR(VLOOKUP($E20,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N20" s="58" t="str">
+      <c r="N20" s="55" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O20" s="58" t="str">
+      <c r="O20" s="55" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P20" s="58"/>
-      <c r="Q20" s="59" t="str">
+      <c r="P20" s="55"/>
+      <c r="Q20" s="56" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="53" t="str">
+      <c r="A21" s="50" t="str">
         <f t="shared" si="0"/>
         <v>mus:P21</v>
       </c>
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="49" t="s">
         <v>59</v>
       </c>
       <c r="C21" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="D21" s="52" t="s">
+      <c r="D21" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="F21" s="54" t="s">
+      <c r="F21" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="J21" s="60"/>
-      <c r="K21" s="57" t="str">
+      <c r="J21" s="57"/>
+      <c r="K21" s="54" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L21" s="57" t="str">
+      <c r="L21" s="54" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M21" s="58" t="str">
+      <c r="M21" s="55" t="str">
         <f>IF(IFERROR(VLOOKUP($E21,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N21" s="58" t="str">
+      <c r="N21" s="55" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O21" s="58" t="str">
+      <c r="O21" s="55" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P21" s="58"/>
-      <c r="Q21" s="59" t="str">
+      <c r="P21" s="55"/>
+      <c r="Q21" s="56" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="53" t="str">
+      <c r="A22" s="50" t="str">
         <f t="shared" si="0"/>
         <v>mus:P22</v>
       </c>
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="D22" s="52" t="s">
+      <c r="D22" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22"/>
+      <c r="F22" s="51" t="s">
         <v>169</v>
       </c>
-      <c r="F22" s="54" t="s">
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L22" s="54" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M22" s="55" t="str">
+        <f>IF(IFERROR(VLOOKUP($E22,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
+        <v>sh:IRI</v>
+      </c>
+      <c r="N22" s="55" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O22" s="55" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P22" s="55"/>
+      <c r="Q22" s="56" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>mus:P23</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" t="s">
         <v>170</v>
       </c>
-      <c r="J22" s="60"/>
-      <c r="K22" s="57" t="str">
+      <c r="D23" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="F23" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="J23" s="57"/>
+      <c r="K23" s="54" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L22" s="57" t="str">
+      <c r="L23" s="54" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M22" s="58" t="str">
-        <f>IF(IFERROR(VLOOKUP($E22,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
+      <c r="M23" s="55" t="str">
+        <f>IF(IFERROR(VLOOKUP($E23,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
         <v>sh:Literal</v>
       </c>
-      <c r="N22" s="58" t="str">
+      <c r="N23" s="55" t="str">
         <f t="shared" si="4"/>
         <v>xsd:string</v>
       </c>
-      <c r="O22" s="58" t="str">
+      <c r="O23" s="55" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P22" s="58"/>
-      <c r="Q22" s="59" t="str">
+      <c r="P23" s="55"/>
+      <c r="Q23" s="56" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="53" t="str">
+    <row r="24">
+      <c r="A24" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>mus:P23</v>
-      </c>
-      <c r="B23" s="52" t="s">
+        <v>mus:P24</v>
+      </c>
+      <c r="B24" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="C23" t="s">
-        <v>171</v>
-      </c>
-      <c r="D23" s="52" t="s">
-        <v>172</v>
-      </c>
-      <c r="E23" s="22" t="s">
+      <c r="C24" t="s">
+        <v>173</v>
+      </c>
+      <c r="D24" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="E24" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="F23" s="54" t="s">
-        <v>173</v>
-      </c>
-      <c r="J23" s="60" t="s">
-        <v>174</v>
-      </c>
-      <c r="K23" s="57" t="str">
+      <c r="F24" s="51" t="s">
+        <v>175</v>
+      </c>
+      <c r="J24" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="K24" s="54" t="str">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L23" s="57" t="str">
+      <c r="L24" s="54" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M23" s="58" t="str">
-        <f>IF(IFERROR(VLOOKUP($E23,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
+      <c r="M24" s="55" t="str">
+        <f>IF(IFERROR(VLOOKUP($E24,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N23" s="58" t="str">
+      <c r="N24" s="55" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O23" s="58" t="str">
+      <c r="O24" s="55" t="str">
         <f t="shared" si="3"/>
         <v>ecrm:E42_Identifier</v>
       </c>
-      <c r="P23" s="58"/>
-      <c r="Q23" s="59" t="str">
+      <c r="P24" s="55"/>
+      <c r="Q24" s="56" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="24" s="64" customFormat="1" ht="25.5">
-      <c r="A24" s="65" t="str">
+    <row r="25" s="62" customFormat="1" ht="25.5">
+      <c r="A25" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>mus:P24</v>
-      </c>
-      <c r="B24" s="52" t="s">
+        <v>mus:P25</v>
+      </c>
+      <c r="B25" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="64" t="s">
-        <v>175</v>
-      </c>
-      <c r="D24" s="66" t="s">
+      <c r="C25" s="62" t="s">
+        <v>177</v>
+      </c>
+      <c r="D25" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="E24" s="64" t="s">
+      <c r="E25" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="F24" s="54" t="s">
-        <v>176</v>
-      </c>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="57" t="str">
+      <c r="F25" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="54" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L24" s="57" t="str">
+      <c r="L25" s="54" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M24" s="70" t="str">
-        <f>IF(IFERROR(VLOOKUP($E24,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
+      <c r="M25" s="68" t="str">
+        <f>IF(IFERROR(VLOOKUP($E25,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N24" s="70" t="str">
+      <c r="N25" s="68" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O24" s="58" t="str">
+      <c r="O25" s="55" t="str">
         <f t="shared" si="3"/>
         <v>mus:M167_Publication_Expression_Fragment</v>
       </c>
-      <c r="P24" s="58"/>
-      <c r="Q24" s="71" t="str">
+      <c r="P25" s="55"/>
+      <c r="Q25" s="69" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y24" s="67"/>
-    </row>
-    <row r="25" ht="25.5">
-      <c r="A25" s="53" t="str">
+      <c r="Y25" s="65"/>
+    </row>
+    <row r="26" ht="25.5">
+      <c r="A26" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>mus:P25</v>
-      </c>
-      <c r="B25" s="52" t="s">
+        <v>mus:P26</v>
+      </c>
+      <c r="B26" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="C25" t="s">
-        <v>177</v>
-      </c>
-      <c r="D25" s="52" t="s">
+      <c r="C26" t="s">
+        <v>179</v>
+      </c>
+      <c r="D26" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E26" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="F25" s="54" t="s">
-        <v>178</v>
-      </c>
-      <c r="J25" s="60" t="s">
-        <v>179</v>
-      </c>
-      <c r="K25" s="57" t="str">
+      <c r="F26" s="51" t="s">
+        <v>180</v>
+      </c>
+      <c r="J26" s="57" t="s">
+        <v>181</v>
+      </c>
+      <c r="K26" s="54" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L25" s="57" t="str">
+      <c r="L26" s="54" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M25" s="58" t="str">
-        <f>IF(IFERROR(VLOOKUP($E25,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
+      <c r="M26" s="55" t="str">
+        <f>IF(IFERROR(VLOOKUP($E26,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N25" s="58" t="str">
+      <c r="N26" s="55" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O25" s="58" t="str">
+      <c r="O26" s="55" t="str">
         <f t="shared" si="3"/>
         <v>mus:M6_Casting</v>
       </c>
-      <c r="P25" s="58"/>
-      <c r="Q25" s="59" t="str">
+      <c r="P26" s="55"/>
+      <c r="Q26" s="56" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="26" s="47" customFormat="1" ht="15">
-      <c r="A26" s="47" t="s">
-        <v>180</v>
-      </c>
-      <c r="E26" s="47"/>
-      <c r="F26" s="48"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="Q26" s="49"/>
-      <c r="Y26" s="50"/>
-    </row>
-    <row r="27" s="52" customFormat="1">
-      <c r="A27" s="53" t="str">
-        <f t="shared" ref="A27:A76" si="6">CONCATENATE("mus:P",ROW(A27))</f>
-        <v>mus:P27</v>
-      </c>
-      <c r="B27" s="52" t="s">
+    <row r="27" s="44" customFormat="1" ht="15">
+      <c r="A27" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="E27" s="44"/>
+      <c r="F27" s="45"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="44"/>
+      <c r="Q27" s="46"/>
+      <c r="Y27" s="47"/>
+    </row>
+    <row r="28" s="49" customFormat="1">
+      <c r="A28" s="50" t="str">
+        <f t="shared" ref="A28:A77" si="6">CONCATENATE("mus:P",ROW(A28))</f>
+        <v>mus:P28</v>
+      </c>
+      <c r="B28" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C28" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="D27" s="52" t="s">
+      <c r="D28" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="E27" s="22"/>
-      <c r="F27" s="54" t="s">
+      <c r="E28" s="22"/>
+      <c r="F28" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="G27" s="54"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="57" t="str">
-        <f t="shared" ref="K27:K82" si="7">IF(LEFT($D27,SEARCH("..",$D27,1)-1)="n","",IF(LEFT($D27,SEARCH("..",$D27,1)-1)="0","",LEFT($D27,SEARCH("..",$D27,1)-1)))</f>
+      <c r="G28" s="51"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="54" t="str">
+        <f t="shared" ref="K28:K83" si="7">IF(LEFT($D28,SEARCH("..",$D28,1)-1)="n","",IF(LEFT($D28,SEARCH("..",$D28,1)-1)="0","",LEFT($D28,SEARCH("..",$D28,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L27" s="57" t="str">
-        <f t="shared" ref="L27:L82" si="8">IF(RIGHT($D27,SEARCH("..",$D27,1)-1)="n","",IF(RIGHT($D27,SEARCH("..",$D27,1)-1)="0","",RIGHT($D27,SEARCH("..",$D27,1)-1)))</f>
+      <c r="L28" s="54" t="str">
+        <f t="shared" ref="L28:L83" si="8">IF(RIGHT($D28,SEARCH("..",$D28,1)-1)="n","",IF(RIGHT($D28,SEARCH("..",$D28,1)-1)="0","",RIGHT($D28,SEARCH("..",$D28,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="M27" s="58" t="str">
-        <f>IF(IFERROR(VLOOKUP($E27,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
-        <v>sh:IRI</v>
-      </c>
-      <c r="N27" s="58" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="O27" s="58" t="str">
-        <f t="shared" ref="O27:O51" si="9">IF($M27="sh:IRI",IF($E27&lt;&gt;"",$E27,""),"")</f>
-        <v/>
-      </c>
-      <c r="P27" s="58"/>
-      <c r="Q27" s="59" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="X27" s="60"/>
-    </row>
-    <row r="28" s="52" customFormat="1">
-      <c r="A28" s="53" t="str">
-        <f t="shared" si="6"/>
-        <v>mus:P28</v>
-      </c>
-      <c r="B28" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="D28" s="61" t="s">
-        <v>140</v>
-      </c>
-      <c r="E28" s="55"/>
-      <c r="F28" s="54" t="s">
-        <v>141</v>
-      </c>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="57" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L28" s="57" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="M28" s="58" t="str">
+      <c r="M28" s="55" t="str">
         <f>IF(IFERROR(VLOOKUP($E28,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N28" s="58" t="str">
+      <c r="N28" s="55" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O28" s="58" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="P28" s="58"/>
-      <c r="Q28" s="59" t="str">
+      <c r="O28" s="55" t="str">
+        <f t="shared" ref="O28:O52" si="9">IF($M28="sh:IRI",IF($E28&lt;&gt;"",$E28,""),"")</f>
+        <v/>
+      </c>
+      <c r="P28" s="55"/>
+      <c r="Q28" s="56" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="X28" s="60"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="53" t="str">
+      <c r="X28" s="57"/>
+    </row>
+    <row r="29" s="49" customFormat="1">
+      <c r="A29" s="50" t="str">
         <f t="shared" si="6"/>
         <v>mus:P29</v>
       </c>
-      <c r="B29" s="52" t="s">
+      <c r="B29" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="D29" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="E29" s="52"/>
+      <c r="F29" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="54" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L29" s="54" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M29" s="55" t="str">
+        <f>IF(IFERROR(VLOOKUP($E29,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
+        <v>sh:IRI</v>
+      </c>
+      <c r="N29" s="55" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O29" s="55" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="P29" s="55"/>
+      <c r="Q29" s="56" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X29" s="57"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="50" t="str">
+        <f t="shared" si="6"/>
+        <v>mus:P30</v>
+      </c>
+      <c r="B30" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" t="s">
         <v>142</v>
       </c>
-      <c r="D29" s="52" t="s">
+      <c r="D30" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E30" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="F29" s="54" t="s">
+      <c r="F30" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="J29" s="60"/>
-      <c r="K29" s="57" t="str">
+      <c r="J30" s="57"/>
+      <c r="K30" s="54" t="str">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="L29" s="57" t="str">
+      <c r="L30" s="54" t="str">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="M29" s="58" t="str">
-        <f>IF(IFERROR(VLOOKUP($E29,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
+      <c r="M30" s="55" t="str">
+        <f>IF(IFERROR(VLOOKUP($E30,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N29" s="58" t="str">
+      <c r="N30" s="55" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O29" s="58" t="str">
+      <c r="O30" s="55" t="str">
         <f t="shared" si="9"/>
         <v>mus:M156_Title_Statement</v>
       </c>
-      <c r="P29" s="58"/>
-      <c r="Q29" s="59" t="str">
+      <c r="P30" s="55"/>
+      <c r="Q30" s="56" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="53" t="str">
+    <row r="31">
+      <c r="A31" s="50" t="str">
         <f t="shared" si="6"/>
-        <v>mus:P30</v>
-      </c>
-      <c r="B30" s="52" t="s">
+        <v>mus:P31</v>
+      </c>
+      <c r="B31" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>144</v>
       </c>
-      <c r="D30" s="52" t="s">
+      <c r="D31" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E31" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="F30" s="54" t="s">
+      <c r="F31" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="J30" s="60"/>
-      <c r="K30" s="57" t="str">
+      <c r="J31" s="57"/>
+      <c r="K31" s="54" t="str">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="L30" s="57" t="str">
+      <c r="L31" s="54" t="str">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="M30" s="58" t="str">
-        <f>IF(IFERROR(VLOOKUP($E30,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
+      <c r="M31" s="55" t="str">
+        <f>IF(IFERROR(VLOOKUP($E31,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N30" s="58" t="str">
+      <c r="N31" s="55" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O30" s="58" t="str">
+      <c r="O31" s="55" t="str">
         <f t="shared" si="9"/>
         <v>mus:M157_Statement_of_Responsibility</v>
       </c>
-      <c r="P30" s="58"/>
-      <c r="Q30" s="59" t="str">
+      <c r="P31" s="55"/>
+      <c r="Q31" s="56" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="53" t="str">
+    <row r="32">
+      <c r="A32" s="50" t="str">
         <f t="shared" si="6"/>
-        <v>mus:P31</v>
-      </c>
-      <c r="B31" s="52" t="s">
+        <v>mus:P32</v>
+      </c>
+      <c r="B32" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>147</v>
       </c>
-      <c r="D31" s="52" t="s">
+      <c r="D32" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E32" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="F31" s="54" t="s">
+      <c r="F32" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="J31" s="60"/>
-      <c r="K31" s="57" t="str">
+      <c r="J32" s="57"/>
+      <c r="K32" s="54" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L31" s="57" t="str">
+      <c r="L32" s="54" t="str">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="M31" s="58" t="str">
-        <f>IF(IFERROR(VLOOKUP($E31,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
+      <c r="M32" s="55" t="str">
+        <f>IF(IFERROR(VLOOKUP($E32,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N31" s="58" t="str">
+      <c r="N32" s="55" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O31" s="58" t="str">
+      <c r="O32" s="55" t="str">
         <f t="shared" si="9"/>
         <v>ecrm:E35_Title</v>
       </c>
-      <c r="P31" s="58"/>
-      <c r="Q31" s="59" t="str">
+      <c r="P32" s="55"/>
+      <c r="Q32" s="56" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="53" t="str">
+    <row r="33">
+      <c r="A33" s="50" t="str">
         <f t="shared" si="6"/>
-        <v>mus:P32</v>
-      </c>
-      <c r="B32" s="52" t="s">
+        <v>mus:P33</v>
+      </c>
+      <c r="B33" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>150</v>
       </c>
-      <c r="D32" s="52" t="s">
+      <c r="D33" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E33" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="F32" s="54" t="s">
+      <c r="F33" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="J32" s="60"/>
-      <c r="K32" s="57" t="str">
+      <c r="J33" s="57"/>
+      <c r="K33" s="54" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L32" s="57" t="str">
+      <c r="L33" s="54" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M32" s="58" t="str">
-        <f>IF(IFERROR(VLOOKUP($E32,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
+      <c r="M33" s="55" t="str">
+        <f>IF(IFERROR(VLOOKUP($E33,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N32" s="58" t="str">
+      <c r="N33" s="55" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O32" s="58" t="str">
+      <c r="O33" s="55" t="str">
         <f t="shared" si="9"/>
         <v>ecrm:E35_Title</v>
       </c>
-      <c r="P32" s="58"/>
-      <c r="Q32" s="59" t="str">
+      <c r="P33" s="55"/>
+      <c r="Q33" s="56" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="53" t="str">
+    <row r="34">
+      <c r="A34" s="50" t="str">
         <f t="shared" si="6"/>
-        <v>mus:P33</v>
-      </c>
-      <c r="B33" s="52" t="s">
+        <v>mus:P34</v>
+      </c>
+      <c r="B34" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C34" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="D33" s="52" t="s">
+      <c r="D34" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="E34" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="F33" s="54" t="s">
+      <c r="F34" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="J33" s="60"/>
-      <c r="K33" s="57" t="str">
+      <c r="J34" s="57"/>
+      <c r="K34" s="54" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L33" s="57" t="str">
+      <c r="L34" s="54" t="str">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="M33" s="58" t="str">
-        <f>IF(IFERROR(VLOOKUP($E33,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
+      <c r="M34" s="55" t="str">
+        <f>IF(IFERROR(VLOOKUP($E34,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N33" s="58" t="str">
+      <c r="N34" s="55" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O33" s="58" t="str">
+      <c r="O34" s="55" t="str">
         <f t="shared" si="9"/>
         <v>mus:M159_Edition_Statement</v>
       </c>
-      <c r="P33" s="58"/>
-      <c r="Q33" s="59" t="str">
+      <c r="P34" s="55"/>
+      <c r="Q34" s="56" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="53" t="str">
+    <row r="35">
+      <c r="A35" s="50" t="str">
         <f t="shared" si="6"/>
-        <v>mus:P34</v>
-      </c>
-      <c r="B34" s="52" t="s">
+        <v>mus:P35</v>
+      </c>
+      <c r="B35" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>154</v>
       </c>
-      <c r="D34" s="52" t="s">
-        <v>181</v>
-      </c>
-      <c r="E34" s="22" t="s">
+      <c r="D35" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="E35" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="F34" s="54" t="s">
+      <c r="F35" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="J34" s="60"/>
-      <c r="K34" s="57" t="str">
+      <c r="J35" s="57"/>
+      <c r="K35" s="54" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L34" s="57" t="str">
+      <c r="L35" s="54" t="str">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="M34" s="58" t="str">
-        <f>IF(IFERROR(VLOOKUP($E34,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
+      <c r="M35" s="55" t="str">
+        <f>IF(IFERROR(VLOOKUP($E35,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N34" s="58" t="str">
+      <c r="N35" s="55" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O34" s="58" t="str">
+      <c r="O35" s="55" t="str">
         <f t="shared" si="9"/>
         <v>mus:M163_Music_Format_Statement</v>
       </c>
-      <c r="P34" s="58"/>
-      <c r="Q34" s="59" t="str">
+      <c r="P35" s="55"/>
+      <c r="Q35" s="56" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="53" t="str">
-        <f t="shared" si="6"/>
-        <v>mus:P35</v>
-      </c>
-      <c r="B35" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="D35" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="F35" s="54" t="s">
-        <v>161</v>
-      </c>
-      <c r="J35" s="60"/>
-      <c r="K35" s="57" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L35" s="57" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="M35" s="58" t="str">
-        <f>IF(IFERROR(VLOOKUP($E35,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
-        <v>sh:IRI</v>
-      </c>
-      <c r="N35" s="58" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="O35" s="58" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="P35" s="58"/>
-      <c r="Q35" s="59" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
     <row r="36">
-      <c r="A36" s="53" t="str">
+      <c r="A36" s="50" t="str">
         <f t="shared" si="6"/>
         <v>mus:P36</v>
       </c>
-      <c r="B36" s="52" t="s">
+      <c r="B36" s="49" t="s">
         <v>79</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="D36" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="D36" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="F36" s="54" t="s">
-        <v>163</v>
-      </c>
-      <c r="J36" s="60"/>
-      <c r="K36" s="57" t="str">
+      <c r="F36" s="51" t="s">
+        <v>161</v>
+      </c>
+      <c r="J36" s="57"/>
+      <c r="K36" s="54" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L36" s="57" t="str">
+      <c r="L36" s="54" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M36" s="58" t="str">
+      <c r="M36" s="55" t="str">
         <f>IF(IFERROR(VLOOKUP($E36,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N36" s="58" t="str">
+      <c r="N36" s="55" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O36" s="58" t="str">
+      <c r="O36" s="55" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="P36" s="58"/>
-      <c r="Q36" s="59" t="str">
+      <c r="P36" s="55"/>
+      <c r="Q36" s="56" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="53" t="str">
+      <c r="A37" s="50" t="str">
         <f t="shared" si="6"/>
         <v>mus:P37</v>
       </c>
-      <c r="B37" s="52" t="s">
+      <c r="B37" s="49" t="s">
         <v>79</v>
       </c>
       <c r="C37" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="D37" s="52" t="s">
+      <c r="D37" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="F37" s="54" t="s">
+      <c r="F37" s="51" t="s">
         <v>165</v>
       </c>
-      <c r="J37" s="60"/>
-      <c r="K37" s="57" t="str">
+      <c r="J37" s="57"/>
+      <c r="K37" s="54" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L37" s="57" t="str">
+      <c r="L37" s="54" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M37" s="58" t="str">
+      <c r="M37" s="55" t="str">
         <f>IF(IFERROR(VLOOKUP($E37,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N37" s="58" t="str">
+      <c r="N37" s="55" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O37" s="58" t="str">
+      <c r="O37" s="55" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="P37" s="58"/>
-      <c r="Q37" s="59" t="str">
+      <c r="P37" s="55"/>
+      <c r="Q37" s="56" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="53" t="str">
+      <c r="A38" s="50" t="str">
         <f t="shared" si="6"/>
         <v>mus:P38</v>
       </c>
-      <c r="B38" s="52" t="s">
+      <c r="B38" s="49" t="s">
         <v>79</v>
       </c>
       <c r="C38" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="D38" s="52" t="s">
+      <c r="D38" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="F38" s="54" t="s">
+      <c r="F38" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="J38" s="60"/>
-      <c r="K38" s="57" t="str">
+      <c r="J38" s="57"/>
+      <c r="K38" s="54" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L38" s="57" t="str">
+      <c r="L38" s="54" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M38" s="58" t="str">
+      <c r="M38" s="55" t="str">
         <f>IF(IFERROR(VLOOKUP($E38,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N38" s="58" t="str">
+      <c r="N38" s="55" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O38" s="58" t="str">
+      <c r="O38" s="55" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="P38" s="58"/>
-      <c r="Q38" s="59" t="str">
+      <c r="P38" s="55"/>
+      <c r="Q38" s="56" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="53" t="str">
+      <c r="A39" s="50" t="str">
         <f t="shared" si="6"/>
         <v>mus:P39</v>
       </c>
-      <c r="B39" s="52" t="s">
+      <c r="B39" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="D39" s="52" t="s">
+      <c r="D39" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="E39" s="22" t="s">
+      <c r="F39" s="51" t="s">
         <v>169</v>
       </c>
-      <c r="F39" s="54" t="s">
+      <c r="J39" s="57"/>
+      <c r="K39" s="54" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L39" s="54" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M39" s="55" t="str">
+        <f>IF(IFERROR(VLOOKUP($E39,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
+        <v>sh:IRI</v>
+      </c>
+      <c r="N39" s="55" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O39" s="55" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="P39" s="55"/>
+      <c r="Q39" s="56" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="50" t="str">
+        <f t="shared" si="6"/>
+        <v>mus:P40</v>
+      </c>
+      <c r="B40" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" t="s">
         <v>170</v>
       </c>
-      <c r="J39" s="60"/>
-      <c r="K39" s="57" t="str">
+      <c r="D40" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="F40" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="J40" s="57"/>
+      <c r="K40" s="54" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L39" s="57" t="str">
+      <c r="L40" s="54" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M39" s="58" t="str">
-        <f>IF(IFERROR(VLOOKUP($E39,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
+      <c r="M40" s="55" t="str">
+        <f>IF(IFERROR(VLOOKUP($E40,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
         <v>sh:Literal</v>
       </c>
-      <c r="N39" s="58" t="str">
+      <c r="N40" s="55" t="str">
         <f t="shared" si="4"/>
         <v>xsd:string</v>
       </c>
-      <c r="O39" s="58" t="str">
+      <c r="O40" s="55" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="P39" s="58"/>
-      <c r="Q39" s="59" t="str">
+      <c r="P40" s="55"/>
+      <c r="Q40" s="56" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="40" ht="25.5">
-      <c r="A40" s="53" t="str">
+    <row r="41" ht="25.5">
+      <c r="A41" s="50" t="str">
         <f t="shared" si="6"/>
-        <v>mus:P40</v>
-      </c>
-      <c r="B40" s="52" t="s">
+        <v>mus:P41</v>
+      </c>
+      <c r="B41" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="C40" t="s">
-        <v>171</v>
-      </c>
-      <c r="D40" s="52" t="s">
+      <c r="C41" t="s">
+        <v>173</v>
+      </c>
+      <c r="D41" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="E40" s="22" t="s">
+      <c r="E41" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="F40" s="54" t="s">
-        <v>173</v>
-      </c>
-      <c r="J40" s="63" t="s">
-        <v>182</v>
-      </c>
-      <c r="K40" s="57" t="str">
+      <c r="F41" s="51" t="s">
+        <v>175</v>
+      </c>
+      <c r="J41" s="59" t="s">
+        <v>184</v>
+      </c>
+      <c r="K41" s="54" t="str">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="L40" s="57" t="str">
+      <c r="L41" s="54" t="str">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="M40" s="58" t="str">
-        <f>IF(IFERROR(VLOOKUP($E40,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
+      <c r="M41" s="55" t="str">
+        <f>IF(IFERROR(VLOOKUP($E41,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N40" s="58" t="str">
+      <c r="N41" s="55" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O40" s="58" t="str">
+      <c r="O41" s="55" t="str">
         <f t="shared" si="9"/>
         <v>ecrm:E42_Identifier</v>
       </c>
-      <c r="P40" s="58"/>
-      <c r="Q40" s="59" t="str">
+      <c r="P41" s="55"/>
+      <c r="Q41" s="56" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="41" ht="25.5">
-      <c r="A41" s="53" t="str">
+    <row r="42" ht="25.5">
+      <c r="A42" s="50" t="str">
         <f t="shared" si="6"/>
-        <v>mus:P41</v>
-      </c>
-      <c r="B41" s="52" t="s">
+        <v>mus:P42</v>
+      </c>
+      <c r="B42" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="C41" t="s">
-        <v>177</v>
-      </c>
-      <c r="D41" s="52" t="s">
-        <v>172</v>
-      </c>
-      <c r="E41" s="22" t="s">
+      <c r="C42" t="s">
+        <v>179</v>
+      </c>
+      <c r="D42" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="E42" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="F41" s="54" t="s">
-        <v>178</v>
-      </c>
-      <c r="J41" s="60" t="s">
-        <v>183</v>
-      </c>
-      <c r="K41" s="57" t="str">
+      <c r="F42" s="51" t="s">
+        <v>180</v>
+      </c>
+      <c r="J42" s="57" t="s">
+        <v>185</v>
+      </c>
+      <c r="K42" s="54" t="str">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="L41" s="57" t="str">
+      <c r="L42" s="54" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M41" s="58" t="str">
-        <f>IF(IFERROR(VLOOKUP($E41,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
+      <c r="M42" s="55" t="str">
+        <f>IF(IFERROR(VLOOKUP($E42,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N41" s="58" t="str">
+      <c r="N42" s="55" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O41" s="58" t="str">
+      <c r="O42" s="55" t="str">
         <f t="shared" si="9"/>
         <v>mus:M6_Casting</v>
       </c>
-      <c r="P41" s="58"/>
-      <c r="Q41" s="59" t="str">
+      <c r="P42" s="55"/>
+      <c r="Q42" s="56" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="42" s="47" customFormat="1" ht="15">
-      <c r="A42" s="47" t="s">
-        <v>184</v>
-      </c>
-      <c r="E42" s="47"/>
-      <c r="F42" s="48"/>
-      <c r="I42" s="49"/>
-      <c r="J42" s="50"/>
-      <c r="K42" s="51"/>
-      <c r="L42" s="51"/>
-      <c r="Q42" s="49"/>
-      <c r="Y42" s="50"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="53" t="str">
+    <row r="43" s="44" customFormat="1" ht="15">
+      <c r="A43" s="44" t="s">
+        <v>186</v>
+      </c>
+      <c r="E43" s="44"/>
+      <c r="F43" s="45"/>
+      <c r="I43" s="46"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="48"/>
+      <c r="L43" s="48"/>
+      <c r="M43" s="44"/>
+      <c r="Q43" s="46"/>
+      <c r="Y43" s="47"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="50" t="str">
         <f t="shared" si="6"/>
-        <v>mus:P43</v>
-      </c>
-      <c r="B43" s="52" t="s">
+        <v>mus:P44</v>
+      </c>
+      <c r="B44" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="C43" t="s">
-        <v>185</v>
-      </c>
-      <c r="D43" s="52" t="s">
+      <c r="C44" t="s">
+        <v>187</v>
+      </c>
+      <c r="D44" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="E43" s="22" t="s">
+      <c r="E44" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="F43" s="54" t="s">
-        <v>186</v>
-      </c>
-      <c r="J43" s="60"/>
-      <c r="K43" s="57" t="str">
+      <c r="F44" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="J44" s="57"/>
+      <c r="K44" s="54" t="str">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="L43" s="57" t="str">
+      <c r="L44" s="54" t="str">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="M43" s="58" t="str">
-        <f>IF(IFERROR(VLOOKUP($E43,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
+      <c r="M44" s="55" t="str">
+        <f>IF(IFERROR(VLOOKUP($E44,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N43" s="58" t="str">
+      <c r="N44" s="55" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O43" s="58" t="str">
+      <c r="O44" s="55" t="str">
         <f t="shared" si="9"/>
         <v>efrbroo:F24_Publication_Expression</v>
       </c>
-      <c r="P43" s="58"/>
-      <c r="Q43" s="59" t="str">
+      <c r="P44" s="55"/>
+      <c r="Q44" s="56" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="53" t="str">
+    <row r="45">
+      <c r="A45" s="50" t="str">
         <f t="shared" si="6"/>
-        <v>mus:P44</v>
-      </c>
-      <c r="B44" s="52" t="s">
+        <v>mus:P45</v>
+      </c>
+      <c r="B45" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="C44" t="s">
-        <v>187</v>
-      </c>
-      <c r="D44" s="52" t="s">
+      <c r="C45" t="s">
+        <v>189</v>
+      </c>
+      <c r="D45" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="E44" s="22" t="s">
+      <c r="E45" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="F44" s="54" t="s">
-        <v>188</v>
-      </c>
-      <c r="J44" s="60"/>
-      <c r="K44" s="57" t="str">
+      <c r="F45" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="J45" s="57"/>
+      <c r="K45" s="54" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L44" s="57" t="str">
+      <c r="L45" s="54" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M44" s="58" t="str">
-        <f>IF(IFERROR(VLOOKUP($E44,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
+      <c r="M45" s="55" t="str">
+        <f>IF(IFERROR(VLOOKUP($E45,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N44" s="58" t="str">
+      <c r="N45" s="55" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O44" s="58" t="str">
+      <c r="O45" s="55" t="str">
         <f t="shared" si="9"/>
         <v>ecrm:E7_Activity</v>
       </c>
-      <c r="P44" s="58"/>
-      <c r="Q44" s="59" t="str">
+      <c r="P45" s="55"/>
+      <c r="Q45" s="56" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="53" t="str">
+    <row r="46">
+      <c r="A46" s="50" t="str">
         <f t="shared" si="6"/>
-        <v>mus:P45</v>
-      </c>
-      <c r="B45" s="52" t="s">
+        <v>mus:P46</v>
+      </c>
+      <c r="B46" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="C45" t="s">
-        <v>189</v>
-      </c>
-      <c r="D45" s="52" t="s">
-        <v>181</v>
-      </c>
-      <c r="E45" s="22" t="s">
+      <c r="C46" t="s">
+        <v>191</v>
+      </c>
+      <c r="D46" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="E46" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="F45" s="54" t="s">
-        <v>190</v>
-      </c>
-      <c r="J45" s="60"/>
-      <c r="K45" s="57" t="str">
+      <c r="F46" s="51" t="s">
+        <v>192</v>
+      </c>
+      <c r="J46" s="57"/>
+      <c r="K46" s="54" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L45" s="57" t="str">
+      <c r="L46" s="54" t="str">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="M45" s="58" t="str">
-        <f>IF(IFERROR(VLOOKUP($E45,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
+      <c r="M46" s="55" t="str">
+        <f>IF(IFERROR(VLOOKUP($E46,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N45" s="58" t="str">
+      <c r="N46" s="55" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O45" s="58" t="str">
+      <c r="O46" s="55" t="str">
         <f t="shared" si="9"/>
         <v>ecrm:E52_Time-Span</v>
       </c>
-      <c r="P45" s="58"/>
-      <c r="Q45" s="59" t="str">
+      <c r="P46" s="55"/>
+      <c r="Q46" s="56" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="46" s="47" customFormat="1" ht="15">
-      <c r="A46" s="47" t="s">
-        <v>191</v>
-      </c>
-      <c r="E46" s="47"/>
-      <c r="F46" s="48"/>
-      <c r="I46" s="49"/>
-      <c r="J46" s="50"/>
-      <c r="K46" s="51"/>
-      <c r="L46" s="51"/>
-      <c r="Q46" s="49"/>
-      <c r="Y46" s="50"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="53" t="str">
+    <row r="47" s="44" customFormat="1" ht="15">
+      <c r="A47" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="E47" s="44"/>
+      <c r="F47" s="45"/>
+      <c r="I47" s="46"/>
+      <c r="J47" s="47"/>
+      <c r="K47" s="48"/>
+      <c r="L47" s="48"/>
+      <c r="M47" s="44"/>
+      <c r="Q47" s="46"/>
+      <c r="Y47" s="47"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="50" t="str">
         <f t="shared" si="6"/>
-        <v>mus:P47</v>
-      </c>
-      <c r="B47" s="4" t="s">
+        <v>mus:P48</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C47" t="s">
-        <v>192</v>
-      </c>
-      <c r="D47" s="52" t="s">
-        <v>172</v>
-      </c>
-      <c r="F47" s="54" t="s">
-        <v>193</v>
-      </c>
-      <c r="J47" s="60"/>
-      <c r="K47" s="57" t="str">
+      <c r="C48" t="s">
+        <v>194</v>
+      </c>
+      <c r="D48" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="F48" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="J48" s="57"/>
+      <c r="K48" s="54" t="str">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="L47" s="57" t="str">
+      <c r="L48" s="54" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M47" s="58" t="str">
-        <f>IF(IFERROR(VLOOKUP($E47,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
+      <c r="M48" s="55" t="str">
+        <f>IF(IFERROR(VLOOKUP($E48,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N47" s="58" t="str">
+      <c r="N48" s="55" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O47" s="58" t="str">
+      <c r="O48" s="55" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="P47" s="58"/>
-      <c r="Q47" s="59" t="str">
+      <c r="P48" s="55"/>
+      <c r="Q48" s="56" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="48" ht="25.5">
-      <c r="A48" s="53" t="str">
+    <row r="49" ht="25.5">
+      <c r="A49" s="50" t="str">
         <f t="shared" si="6"/>
-        <v>mus:P48</v>
-      </c>
-      <c r="B48" s="4" t="s">
+        <v>mus:P49</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C48" t="s">
-        <v>194</v>
-      </c>
-      <c r="D48" s="52" t="s">
-        <v>172</v>
-      </c>
-      <c r="F48" s="54" t="s">
-        <v>195</v>
-      </c>
-      <c r="J48" s="4" t="s">
+      <c r="C49" t="s">
         <v>196</v>
       </c>
-      <c r="K48" s="57" t="str">
+      <c r="D49" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="F49" s="51" t="s">
+        <v>197</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="K49" s="54" t="str">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="L48" s="57" t="str">
+      <c r="L49" s="54" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M48" s="58" t="str">
-        <f>IF(IFERROR(VLOOKUP($J48,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M49" s="55" t="str">
+        <f>IF(IFERROR(VLOOKUP($J49,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N48" s="58" t="str">
-        <f>IF(M48="sh:Literal",J48,"")</f>
-        <v/>
-      </c>
-      <c r="O48" s="58" t="str">
+      <c r="N49" s="55" t="str">
+        <f>IF(M49="sh:Literal",J49,"")</f>
+        <v/>
+      </c>
+      <c r="O49" s="55" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="P48" s="58"/>
-      <c r="Q48" s="59" t="str">
+      <c r="P49" s="55"/>
+      <c r="Q49" s="56" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="49" s="47" customFormat="1" ht="15">
-      <c r="A49" s="47" t="s">
-        <v>197</v>
-      </c>
-      <c r="E49" s="47"/>
-      <c r="F49" s="48"/>
-      <c r="I49" s="49"/>
-      <c r="J49" s="50"/>
-      <c r="K49" s="51"/>
-      <c r="L49" s="51"/>
-      <c r="Q49" s="49"/>
-      <c r="Y49" s="50"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="53" t="str">
+    <row r="50" s="44" customFormat="1" ht="15">
+      <c r="A50" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="E50" s="44"/>
+      <c r="F50" s="45"/>
+      <c r="I50" s="46"/>
+      <c r="J50" s="47"/>
+      <c r="K50" s="48"/>
+      <c r="L50" s="48"/>
+      <c r="M50" s="44"/>
+      <c r="N50" s="44"/>
+      <c r="Q50" s="46"/>
+      <c r="Y50" s="47"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="50" t="str">
         <f t="shared" si="6"/>
-        <v>mus:P50</v>
-      </c>
-      <c r="B50" s="4" t="s">
+        <v>mus:P51</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C50" t="s">
-        <v>198</v>
-      </c>
-      <c r="D50" s="52" t="s">
-        <v>181</v>
-      </c>
-      <c r="E50" s="52" t="s">
-        <v>199</v>
-      </c>
-      <c r="F50" s="54" t="s">
+      <c r="C51" t="s">
         <v>200</v>
       </c>
-      <c r="H50" s="72" t="s">
+      <c r="D51" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="E51" s="49" t="s">
         <v>201</v>
       </c>
-      <c r="J50" s="60"/>
-      <c r="K50" s="57" t="str">
+      <c r="F51" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="H51" s="70" t="s">
+        <v>203</v>
+      </c>
+      <c r="J51" s="57"/>
+      <c r="K51" s="54" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L50" s="57" t="str">
+      <c r="L51" s="54" t="str">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="M50" s="58" t="str">
-        <f>IF(IFERROR(VLOOKUP($E50,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M51" s="55" t="str">
+        <f>IF(IFERROR(VLOOKUP($E51,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
         <v>sh:Literal</v>
       </c>
-      <c r="N50" s="58" t="str">
-        <f t="shared" ref="N50:N82" si="10">IF(M50="sh:Literal",E50,"")</f>
+      <c r="N51" s="55" t="str">
+        <f t="shared" ref="N51:N83" si="10">IF(M51="sh:Literal",E51,"")</f>
         <v>xsd:integer</v>
       </c>
-      <c r="O50" s="58" t="str">
+      <c r="O51" s="55" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="P50" s="58"/>
-      <c r="Q50" s="59" t="str">
+      <c r="P51" s="55"/>
+      <c r="Q51" s="56" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="53" t="str">
+    <row r="52">
+      <c r="A52" s="50" t="str">
         <f t="shared" si="6"/>
-        <v>mus:P51</v>
-      </c>
-      <c r="B51" s="4" t="s">
+        <v>mus:P52</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C51" t="s">
-        <v>202</v>
-      </c>
-      <c r="D51" s="52" t="s">
-        <v>172</v>
-      </c>
-      <c r="E51" s="22" t="s">
+      <c r="C52" t="s">
+        <v>204</v>
+      </c>
+      <c r="D52" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="E52" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="F51" s="73" t="s">
-        <v>203</v>
-      </c>
-      <c r="H51" s="72"/>
-      <c r="J51" s="60"/>
-      <c r="K51" s="57" t="str">
+      <c r="F52" s="71" t="s">
+        <v>205</v>
+      </c>
+      <c r="H52" s="70"/>
+      <c r="J52" s="57"/>
+      <c r="K52" s="54" t="str">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="L51" s="57" t="str">
+      <c r="L52" s="54" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M51" s="58" t="str">
-        <f>IF(IFERROR(VLOOKUP($E51,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
+      <c r="M52" s="55" t="str">
+        <f>IF(IFERROR(VLOOKUP($E52,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N51" s="58" t="str">
+      <c r="N52" s="55" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="O51" s="58" t="str">
+      <c r="O52" s="55" t="str">
         <f t="shared" si="9"/>
         <v>mus:M23_Casting_Detail</v>
       </c>
-      <c r="P51" s="58"/>
-      <c r="Q51" s="59" t="str">
+      <c r="P52" s="55"/>
+      <c r="Q52" s="56" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="52" s="47" customFormat="1" ht="15">
-      <c r="A52" s="47" t="s">
-        <v>204</v>
-      </c>
-      <c r="E52" s="47"/>
-      <c r="F52" s="48"/>
-      <c r="I52" s="49"/>
-      <c r="J52" s="50"/>
-      <c r="K52" s="51"/>
-      <c r="L52" s="51"/>
-      <c r="Q52" s="49"/>
-      <c r="Y52" s="50"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="53" t="str">
+    <row r="53" s="44" customFormat="1" ht="15">
+      <c r="A53" s="44" t="s">
+        <v>206</v>
+      </c>
+      <c r="E53" s="44"/>
+      <c r="F53" s="45"/>
+      <c r="I53" s="46"/>
+      <c r="J53" s="47"/>
+      <c r="K53" s="48"/>
+      <c r="L53" s="48"/>
+      <c r="M53" s="44"/>
+      <c r="P53" s="44"/>
+      <c r="Q53" s="46"/>
+      <c r="Y53" s="47"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="50" t="str">
         <f t="shared" si="6"/>
-        <v>mus:P53</v>
-      </c>
-      <c r="B53" s="22" t="s">
+        <v>mus:P54</v>
+      </c>
+      <c r="B54" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C53" t="s">
-        <v>205</v>
-      </c>
-      <c r="D53" s="52" t="s">
-        <v>181</v>
-      </c>
-      <c r="E53" s="74" t="s">
+      <c r="C54" t="s">
+        <v>207</v>
+      </c>
+      <c r="D54" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="E54" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="F53" s="54" t="s">
-        <v>206</v>
-      </c>
-      <c r="H53" s="54" t="s">
-        <v>207</v>
-      </c>
-      <c r="J53" s="60"/>
-      <c r="K53" s="57" t="str">
+      <c r="F54" s="51" t="s">
+        <v>208</v>
+      </c>
+      <c r="H54" s="51" t="s">
+        <v>209</v>
+      </c>
+      <c r="J54" s="57"/>
+      <c r="K54" s="54" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L53" s="57" t="str">
+      <c r="L54" s="54" t="str">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="M53" s="58" t="str">
-        <f>IF(IFERROR(VLOOKUP($E53,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
+      <c r="M54" s="55" t="str">
+        <f>IF(IFERROR(VLOOKUP($E54,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N53" s="58" t="str">
+      <c r="N54" s="55" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P53" s="58" t="str">
-        <f t="shared" ref="O53:P76" si="11">IF($M53="sh:IRI",IF($E53&lt;&gt;"",$E53,""),"")</f>
+      <c r="P54" s="55" t="str">
+        <f>IF($M54="sh:IRI",IF($E54&lt;&gt;"",$E54,""),"")</f>
         <v>philharshapes:MIMO</v>
       </c>
-      <c r="Q53" s="59" t="str">
+      <c r="Q54" s="56" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="53" t="str">
+    <row r="55">
+      <c r="A55" s="50" t="str">
         <f t="shared" si="6"/>
-        <v>mus:P54</v>
-      </c>
-      <c r="B54" s="22" t="s">
+        <v>mus:P55</v>
+      </c>
+      <c r="B55" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C54" t="s">
-        <v>208</v>
-      </c>
-      <c r="D54" s="52" t="s">
-        <v>181</v>
-      </c>
-      <c r="E54" s="74" t="s">
+      <c r="C55" t="s">
+        <v>210</v>
+      </c>
+      <c r="D55" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="E55" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="F54" s="54" t="s">
+      <c r="F55" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="H55" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="H54" s="54" t="s">
-        <v>207</v>
-      </c>
-      <c r="J54" s="60"/>
-      <c r="K54" s="57" t="str">
+      <c r="J55" s="57"/>
+      <c r="K55" s="54" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L54" s="57" t="str">
+      <c r="L55" s="54" t="str">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="M54" s="58" t="str">
-        <f>IF(IFERROR(VLOOKUP($E54,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
+      <c r="M55" s="55" t="str">
+        <f>IF(IFERROR(VLOOKUP($E55,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N54" s="58" t="str">
+      <c r="N55" s="55" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P54" s="58" t="str">
-        <f t="shared" si="11"/>
+      <c r="P55" s="55" t="str">
+        <f>IF($M55="sh:IRI",IF($E55&lt;&gt;"",$E55,""),"")</f>
         <v>philharshapes:IAML</v>
       </c>
-      <c r="Q54" s="59" t="str">
+      <c r="Q55" s="56" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="53" t="str">
+    <row r="56">
+      <c r="A56" s="50" t="str">
         <f t="shared" si="6"/>
-        <v>mus:P55</v>
-      </c>
-      <c r="B55" s="22" t="s">
+        <v>mus:P56</v>
+      </c>
+      <c r="B56" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C55" t="s">
-        <v>210</v>
-      </c>
-      <c r="D55" s="52" t="s">
-        <v>181</v>
-      </c>
-      <c r="E55" s="74" t="s">
+      <c r="C56" t="s">
+        <v>212</v>
+      </c>
+      <c r="D56" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="E56" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="F55" s="54" t="s">
-        <v>211</v>
-      </c>
-      <c r="J55" s="60"/>
-      <c r="K55" s="57" t="str">
+      <c r="F56" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="J56" s="57"/>
+      <c r="K56" s="54" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L55" s="57" t="str">
+      <c r="L56" s="54" t="str">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="M55" s="58" t="str">
-        <f>IF(IFERROR(VLOOKUP($E55,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
+      <c r="M56" s="55" t="str">
+        <f>IF(IFERROR(VLOOKUP($E56,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N55" s="58" t="str">
+      <c r="N56" s="55" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P55" s="58" t="str">
-        <f t="shared" si="11"/>
+      <c r="P56" s="55" t="str">
+        <f>IF($M56="sh:IRI",IF($E56&lt;&gt;"",$E56,""),"")</f>
         <v>philharshapes:EducationalLevel</v>
       </c>
-      <c r="Q55" s="59" t="str">
+      <c r="Q56" s="56" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="53" t="str">
+    <row r="57">
+      <c r="A57" s="50" t="str">
         <f t="shared" si="6"/>
-        <v>mus:P56</v>
-      </c>
-      <c r="B56" s="22" t="s">
+        <v>mus:P57</v>
+      </c>
+      <c r="B57" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C56" t="s">
-        <v>212</v>
-      </c>
-      <c r="D56" s="52" t="s">
-        <v>181</v>
-      </c>
-      <c r="F56" s="54" t="s">
-        <v>213</v>
-      </c>
-      <c r="J56" s="60"/>
-      <c r="K56" s="57" t="str">
+      <c r="C57" t="s">
+        <v>214</v>
+      </c>
+      <c r="D57" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="F57" s="51" t="s">
+        <v>215</v>
+      </c>
+      <c r="J57" s="57"/>
+      <c r="K57" s="54" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L56" s="57" t="str">
+      <c r="L57" s="54" t="str">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="M56" s="58" t="str">
-        <f>IF(IFERROR(VLOOKUP($E56,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
+      <c r="M57" s="55" t="str">
+        <f>IF(IFERROR(VLOOKUP($E57,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N56" s="58" t="str">
+      <c r="N57" s="55" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="O56" s="58" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="P56" s="58"/>
-      <c r="Q56" s="59" t="str">
+      <c r="O57" s="55" t="str">
+        <f>IF($M57="sh:IRI",IF($E57&lt;&gt;"",$E57,""),"")</f>
+        <v/>
+      </c>
+      <c r="P57" s="55"/>
+      <c r="Q57" s="56" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="57" ht="25.5">
-      <c r="A57" s="53" t="str">
+    <row r="58" ht="25.5">
+      <c r="A58" s="50" t="str">
         <f t="shared" si="6"/>
-        <v>mus:P57</v>
-      </c>
-      <c r="B57" s="22" t="s">
+        <v>mus:P58</v>
+      </c>
+      <c r="B58" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C57" t="s">
-        <v>214</v>
-      </c>
-      <c r="D57" s="52" t="s">
-        <v>181</v>
-      </c>
-      <c r="E57" s="52" t="s">
-        <v>199</v>
-      </c>
-      <c r="F57" s="54" t="s">
-        <v>215</v>
-      </c>
-      <c r="H57" s="73" t="s">
+      <c r="C58" t="s">
         <v>216</v>
       </c>
-      <c r="J57" s="60" t="s">
+      <c r="D58" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="E58" s="49" t="s">
+        <v>201</v>
+      </c>
+      <c r="F58" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="K57" s="57" t="str">
+      <c r="H58" s="71" t="s">
+        <v>218</v>
+      </c>
+      <c r="J58" s="57" t="s">
+        <v>219</v>
+      </c>
+      <c r="K58" s="54" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L57" s="57" t="str">
+      <c r="L58" s="54" t="str">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="M57" s="58" t="str">
-        <f>IF(IFERROR(VLOOKUP($E57,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
+      <c r="M58" s="55" t="str">
+        <f>IF(IFERROR(VLOOKUP($E58,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
         <v>sh:Literal</v>
       </c>
-      <c r="N57" s="58" t="str">
+      <c r="N58" s="55" t="str">
         <f t="shared" si="10"/>
         <v>xsd:integer</v>
       </c>
-      <c r="O57" s="58" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="P57" s="58"/>
-      <c r="Q57" s="59" t="str">
+      <c r="O58" s="55" t="str">
+        <f>IF($M58="sh:IRI",IF($E58&lt;&gt;"",$E58,""),"")</f>
+        <v/>
+      </c>
+      <c r="P58" s="55"/>
+      <c r="Q58" s="56" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="53" t="str">
+    <row r="59">
+      <c r="A59" s="50" t="str">
         <f t="shared" si="6"/>
-        <v>mus:P58</v>
-      </c>
-      <c r="B58" s="22" t="s">
+        <v>mus:P59</v>
+      </c>
+      <c r="B59" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C58" t="s">
-        <v>168</v>
-      </c>
-      <c r="D58" s="52" t="s">
+      <c r="C59" t="s">
+        <v>170</v>
+      </c>
+      <c r="D59" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="E58" s="52" t="s">
-        <v>169</v>
-      </c>
-      <c r="F58" s="54" t="s">
-        <v>170</v>
-      </c>
-      <c r="H58" s="73"/>
-      <c r="J58" s="60"/>
-      <c r="K58" s="57"/>
-      <c r="L58" s="57" t="str">
+      <c r="E59" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="F59" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="H59" s="71"/>
+      <c r="J59" s="57"/>
+      <c r="K59" s="54"/>
+      <c r="L59" s="54" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M58" s="58" t="str">
-        <f>IF(IFERROR(VLOOKUP($E58,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
+      <c r="M59" s="55" t="str">
+        <f>IF(IFERROR(VLOOKUP($E59,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
         <v>sh:Literal</v>
       </c>
-      <c r="N58" s="58" t="str">
+      <c r="N59" s="55" t="str">
         <f t="shared" si="10"/>
         <v>xsd:string</v>
       </c>
-      <c r="O58" s="58" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="P58" s="58"/>
-      <c r="Q58" s="59" t="str">
+      <c r="O59" s="55" t="str">
+        <f>IF($M59="sh:IRI",IF($E59&lt;&gt;"",$E59,""),"")</f>
+        <v/>
+      </c>
+      <c r="P59" s="55"/>
+      <c r="Q59" s="56" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="53" t="str">
+    <row r="60">
+      <c r="A60" s="50" t="str">
         <f t="shared" si="6"/>
-        <v>mus:P59</v>
-      </c>
-      <c r="B59" s="22" t="s">
+        <v>mus:P60</v>
+      </c>
+      <c r="B60" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C59" t="s">
-        <v>218</v>
-      </c>
-      <c r="D59" s="52" t="s">
-        <v>181</v>
-      </c>
-      <c r="F59" s="54" t="s">
-        <v>219</v>
-      </c>
-      <c r="H59" s="73"/>
-      <c r="J59" s="60"/>
-      <c r="K59" s="57" t="str">
+      <c r="C60" t="s">
+        <v>220</v>
+      </c>
+      <c r="D60" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="F60" s="51" t="s">
+        <v>221</v>
+      </c>
+      <c r="H60" s="71"/>
+      <c r="J60" s="57"/>
+      <c r="K60" s="54" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L59" s="57" t="str">
+      <c r="L60" s="54" t="str">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="M59" s="58" t="str">
-        <f>IF(IFERROR(VLOOKUP($E59,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
+      <c r="M60" s="55" t="str">
+        <f>IF(IFERROR(VLOOKUP($E60,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N59" s="58" t="str">
+      <c r="N60" s="55" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="O59" s="58" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="P59" s="58"/>
-      <c r="Q59" s="59" t="str">
+      <c r="O60" s="55" t="str">
+        <f>IF($M60="sh:IRI",IF($E60&lt;&gt;"",$E60,""),"")</f>
+        <v/>
+      </c>
+      <c r="P60" s="55"/>
+      <c r="Q60" s="56" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="60" s="47" customFormat="1" ht="15">
-      <c r="A60" s="47" t="s">
-        <v>220</v>
-      </c>
-      <c r="E60" s="47"/>
-      <c r="F60" s="48"/>
-      <c r="I60" s="49"/>
-      <c r="J60" s="50"/>
-      <c r="K60" s="51"/>
-      <c r="L60" s="51"/>
-      <c r="Q60" s="49"/>
-      <c r="Y60" s="50"/>
-    </row>
-    <row r="61" s="75" customFormat="1" ht="15">
-      <c r="A61" s="53" t="str">
+    <row r="61" s="44" customFormat="1" ht="15">
+      <c r="A61" s="44" t="s">
+        <v>222</v>
+      </c>
+      <c r="E61" s="44"/>
+      <c r="F61" s="45"/>
+      <c r="I61" s="46"/>
+      <c r="J61" s="47"/>
+      <c r="K61" s="48"/>
+      <c r="L61" s="48"/>
+      <c r="M61" s="44"/>
+      <c r="O61" s="44"/>
+      <c r="Q61" s="46"/>
+      <c r="Y61" s="47"/>
+    </row>
+    <row r="62" s="73" customFormat="1" ht="15">
+      <c r="A62" s="50" t="str">
         <f t="shared" si="6"/>
-        <v>mus:P61</v>
-      </c>
-      <c r="B61" s="4" t="s">
+        <v>mus:P62</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C62" t="s">
         <v>25</v>
       </c>
-      <c r="D61" s="52" t="s">
+      <c r="D62" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="E61" t="s">
-        <v>169</v>
-      </c>
-      <c r="F61" s="54" t="s">
-        <v>221</v>
-      </c>
-      <c r="I61" s="76"/>
-      <c r="J61" s="60"/>
-      <c r="K61" s="57" t="str">
+      <c r="E62" t="s">
+        <v>171</v>
+      </c>
+      <c r="F62" s="51" t="s">
+        <v>223</v>
+      </c>
+      <c r="I62" s="74"/>
+      <c r="J62" s="57"/>
+      <c r="K62" s="54" t="str">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="L61" s="57" t="str">
+      <c r="L62" s="54" t="str">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="M61" s="58" t="str">
-        <f>IF(IFERROR(VLOOKUP($E61,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
+      <c r="M62" s="55" t="str">
+        <f>IF(IFERROR(VLOOKUP($E62,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
         <v>sh:Literal</v>
       </c>
-      <c r="N61" s="77" t="str">
+      <c r="N62" s="75" t="str">
         <f t="shared" si="10"/>
         <v>xsd:string</v>
       </c>
-      <c r="O61" s="58" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="P61" s="58"/>
-      <c r="Q61" s="77" t="str">
+      <c r="O62" s="55" t="str">
+        <f>IF($M62="sh:IRI",IF($E62&lt;&gt;"",$E62,""),"")</f>
+        <v/>
+      </c>
+      <c r="P62" s="55"/>
+      <c r="Q62" s="75" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y61" s="78"/>
-    </row>
-    <row r="62" s="47" customFormat="1" ht="15">
-      <c r="A62" s="47" t="s">
-        <v>222</v>
-      </c>
-      <c r="E62" s="47"/>
-      <c r="F62" s="48"/>
-      <c r="I62" s="49"/>
-      <c r="J62" s="50"/>
-      <c r="K62" s="51"/>
-      <c r="L62" s="51"/>
-      <c r="Q62" s="49"/>
-      <c r="Y62" s="50"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="53" t="str">
+      <c r="Y62" s="76"/>
+    </row>
+    <row r="63" s="44" customFormat="1" ht="15">
+      <c r="A63" s="44" t="s">
+        <v>224</v>
+      </c>
+      <c r="E63" s="44"/>
+      <c r="F63" s="45"/>
+      <c r="I63" s="46"/>
+      <c r="J63" s="47"/>
+      <c r="K63" s="48"/>
+      <c r="L63" s="48"/>
+      <c r="M63" s="44"/>
+      <c r="O63" s="44"/>
+      <c r="Q63" s="46"/>
+      <c r="Y63" s="47"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="50" t="str">
         <f t="shared" si="6"/>
-        <v>mus:P63</v>
-      </c>
-      <c r="B63" s="4" t="s">
+        <v>mus:P64</v>
+      </c>
+      <c r="B64" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C64" t="s">
         <v>25</v>
       </c>
-      <c r="D63" s="52" t="s">
+      <c r="D64" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="E63" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="F63" s="54" t="s">
-        <v>221</v>
-      </c>
-      <c r="J63" s="60"/>
-      <c r="K63" s="57" t="str">
+      <c r="E64" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="F64" s="51" t="s">
+        <v>223</v>
+      </c>
+      <c r="J64" s="57"/>
+      <c r="K64" s="54" t="str">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="L63" s="57" t="str">
+      <c r="L64" s="54" t="str">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="M63" s="58" t="str">
-        <f>IF(IFERROR(VLOOKUP($E63,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
+      <c r="M64" s="55" t="str">
+        <f>IF(IFERROR(VLOOKUP($E64,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
         <v>sh:Literal</v>
       </c>
-      <c r="N63" s="77" t="str">
+      <c r="N64" s="75" t="str">
         <f t="shared" si="10"/>
         <v>xsd:string</v>
       </c>
-      <c r="O63" s="58" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="P63" s="58"/>
-      <c r="Q63" s="77" t="str">
+      <c r="O64" s="55" t="str">
+        <f>IF($M64="sh:IRI",IF($E64&lt;&gt;"",$E64,""),"")</f>
+        <v/>
+      </c>
+      <c r="P64" s="55"/>
+      <c r="Q64" s="75" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="64" s="47" customFormat="1" ht="15">
-      <c r="A64" s="47" t="s">
+    <row r="65" s="44" customFormat="1" ht="15">
+      <c r="A65" s="44" t="s">
+        <v>225</v>
+      </c>
+      <c r="E65" s="44"/>
+      <c r="F65" s="45"/>
+      <c r="I65" s="46"/>
+      <c r="J65" s="47"/>
+      <c r="K65" s="48"/>
+      <c r="L65" s="48"/>
+      <c r="M65" s="44"/>
+      <c r="O65" s="44"/>
+      <c r="Q65" s="46"/>
+      <c r="Y65" s="47"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="50" t="str">
+        <f t="shared" si="6"/>
+        <v>mus:P66</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="E66" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="F66" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="E64" s="47"/>
-      <c r="F64" s="48"/>
-      <c r="I64" s="49"/>
-      <c r="J64" s="50"/>
-      <c r="K64" s="51"/>
-      <c r="L64" s="51"/>
-      <c r="Q64" s="49"/>
-      <c r="Y64" s="50"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="53" t="str">
-        <f t="shared" si="6"/>
-        <v>mus:P65</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C65" t="s">
-        <v>25</v>
-      </c>
-      <c r="D65" s="52" t="s">
-        <v>136</v>
-      </c>
-      <c r="E65" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="F65" s="54" t="s">
-        <v>221</v>
-      </c>
-      <c r="J65" s="60"/>
-      <c r="K65" s="57" t="str">
+      <c r="J66" s="57"/>
+      <c r="K66" s="54" t="str">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="L65" s="57" t="str">
+      <c r="L66" s="54" t="str">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="M65" s="58" t="str">
-        <f>IF(IFERROR(VLOOKUP($E65,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
+      <c r="M66" s="55" t="str">
+        <f>IF(IFERROR(VLOOKUP($E66,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
         <v>sh:Literal</v>
       </c>
-      <c r="N65" s="77" t="str">
+      <c r="N66" s="75" t="str">
         <f t="shared" si="10"/>
         <v>xsd:string</v>
       </c>
-      <c r="O65" s="58" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="P65" s="58"/>
-      <c r="Q65" s="77" t="str">
+      <c r="O66" s="55" t="str">
+        <f>IF($M66="sh:IRI",IF($E66&lt;&gt;"",$E66,""),"")</f>
+        <v/>
+      </c>
+      <c r="P66" s="55"/>
+      <c r="Q66" s="75" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="66" s="47" customFormat="1" ht="15">
-      <c r="A66" s="47" t="s">
-        <v>224</v>
-      </c>
-      <c r="E66" s="47"/>
-      <c r="F66" s="48"/>
-      <c r="I66" s="49"/>
-      <c r="J66" s="50"/>
-      <c r="K66" s="51"/>
-      <c r="L66" s="51"/>
-      <c r="Q66" s="49"/>
-      <c r="Y66" s="50"/>
-    </row>
-    <row r="67" s="75" customFormat="1" ht="15">
-      <c r="A67" s="53" t="str">
+    <row r="67" s="44" customFormat="1" ht="15">
+      <c r="A67" s="44" t="s">
+        <v>226</v>
+      </c>
+      <c r="E67" s="44"/>
+      <c r="F67" s="45"/>
+      <c r="I67" s="46"/>
+      <c r="J67" s="47"/>
+      <c r="K67" s="48"/>
+      <c r="L67" s="48"/>
+      <c r="M67" s="44"/>
+      <c r="O67" s="44"/>
+      <c r="Q67" s="46"/>
+      <c r="Y67" s="47"/>
+    </row>
+    <row r="68" s="73" customFormat="1" ht="15">
+      <c r="A68" s="50" t="str">
         <f t="shared" si="6"/>
-        <v>mus:P67</v>
-      </c>
-      <c r="B67" t="s">
+        <v>mus:P68</v>
+      </c>
+      <c r="B68" t="s">
         <v>74</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C68" t="s">
         <v>25</v>
       </c>
-      <c r="D67" s="52" t="s">
+      <c r="D68" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="E67" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="F67" s="54" t="s">
-        <v>221</v>
-      </c>
-      <c r="I67" s="76"/>
-      <c r="J67" s="60"/>
-      <c r="K67" s="57" t="str">
+      <c r="E68" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="F68" s="51" t="s">
+        <v>223</v>
+      </c>
+      <c r="I68" s="74"/>
+      <c r="J68" s="57"/>
+      <c r="K68" s="54" t="str">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="L67" s="57" t="str">
+      <c r="L68" s="54" t="str">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="M67" s="58" t="str">
-        <f>IF(IFERROR(VLOOKUP($E67,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
+      <c r="M68" s="55" t="str">
+        <f>IF(IFERROR(VLOOKUP($E68,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
         <v>sh:Literal</v>
       </c>
-      <c r="N67" s="77" t="str">
+      <c r="N68" s="75" t="str">
         <f t="shared" si="10"/>
         <v>xsd:string</v>
       </c>
-      <c r="O67" s="58" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="P67" s="58"/>
-      <c r="Q67" s="77" t="str">
+      <c r="O68" s="55" t="str">
+        <f>IF($M68="sh:IRI",IF($E68&lt;&gt;"",$E68,""),"")</f>
+        <v/>
+      </c>
+      <c r="P68" s="55"/>
+      <c r="Q68" s="75" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y67" s="78"/>
-    </row>
-    <row r="68" s="47" customFormat="1" ht="15">
-      <c r="A68" s="47" t="s">
-        <v>225</v>
-      </c>
-      <c r="E68" s="47"/>
-      <c r="F68" s="48"/>
-      <c r="I68" s="49"/>
-      <c r="J68" s="50"/>
-      <c r="K68" s="51"/>
-      <c r="L68" s="51"/>
-      <c r="Q68" s="49"/>
-      <c r="Y68" s="50"/>
-    </row>
-    <row r="69" s="75" customFormat="1" ht="15">
-      <c r="A69" s="53" t="str">
+      <c r="Y68" s="76"/>
+    </row>
+    <row r="69" s="44" customFormat="1" ht="15">
+      <c r="A69" s="44" t="s">
+        <v>227</v>
+      </c>
+      <c r="E69" s="44"/>
+      <c r="F69" s="45"/>
+      <c r="I69" s="46"/>
+      <c r="J69" s="47"/>
+      <c r="K69" s="48"/>
+      <c r="L69" s="48"/>
+      <c r="M69" s="44"/>
+      <c r="O69" s="44"/>
+      <c r="Q69" s="46"/>
+      <c r="Y69" s="47"/>
+    </row>
+    <row r="70" s="73" customFormat="1" ht="15">
+      <c r="A70" s="50" t="str">
         <f t="shared" si="6"/>
-        <v>mus:P69</v>
-      </c>
-      <c r="B69" t="s">
+        <v>mus:P70</v>
+      </c>
+      <c r="B70" t="s">
         <v>75</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C70" t="s">
         <v>25</v>
       </c>
-      <c r="D69" s="52" t="s">
+      <c r="D70" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="E69" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="F69" s="54" t="s">
-        <v>221</v>
-      </c>
-      <c r="I69" s="76"/>
-      <c r="J69" s="60"/>
-      <c r="K69" s="57" t="str">
+      <c r="E70" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="F70" s="51" t="s">
+        <v>223</v>
+      </c>
+      <c r="I70" s="74"/>
+      <c r="J70" s="57"/>
+      <c r="K70" s="54" t="str">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="L69" s="57" t="str">
+      <c r="L70" s="54" t="str">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="M69" s="58" t="str">
-        <f>IF(IFERROR(VLOOKUP($E69,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
+      <c r="M70" s="55" t="str">
+        <f>IF(IFERROR(VLOOKUP($E70,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
         <v>sh:Literal</v>
       </c>
-      <c r="N69" s="77" t="str">
+      <c r="N70" s="75" t="str">
         <f t="shared" si="10"/>
         <v>xsd:string</v>
       </c>
-      <c r="O69" s="58" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="P69" s="58"/>
-      <c r="Q69" s="77" t="str">
+      <c r="O70" s="55" t="str">
+        <f>IF($M70="sh:IRI",IF($E70&lt;&gt;"",$E70,""),"")</f>
+        <v/>
+      </c>
+      <c r="P70" s="55"/>
+      <c r="Q70" s="75" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y69" s="78"/>
-    </row>
-    <row r="70" s="47" customFormat="1" ht="15">
-      <c r="A70" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="E70" s="47"/>
-      <c r="F70" s="48"/>
-      <c r="I70" s="49"/>
-      <c r="J70" s="50"/>
-      <c r="K70" s="51"/>
-      <c r="L70" s="51"/>
-      <c r="Q70" s="49"/>
-      <c r="Y70" s="50"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="53" t="str">
+      <c r="Y70" s="76"/>
+    </row>
+    <row r="71" s="44" customFormat="1" ht="15">
+      <c r="A71" s="44" t="s">
+        <v>228</v>
+      </c>
+      <c r="E71" s="44"/>
+      <c r="F71" s="45"/>
+      <c r="I71" s="46"/>
+      <c r="J71" s="47"/>
+      <c r="K71" s="48"/>
+      <c r="L71" s="48"/>
+      <c r="M71" s="44"/>
+      <c r="O71" s="44"/>
+      <c r="Q71" s="46"/>
+      <c r="Y71" s="47"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="50" t="str">
         <f t="shared" si="6"/>
-        <v>mus:P71</v>
-      </c>
-      <c r="B71" s="4" t="s">
+        <v>mus:P72</v>
+      </c>
+      <c r="B72" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C72" t="s">
         <v>25</v>
       </c>
-      <c r="D71" s="52" t="s">
+      <c r="D72" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="E71" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="F71" s="54" t="s">
-        <v>221</v>
-      </c>
-      <c r="J71" s="60"/>
-      <c r="K71" s="57" t="str">
+      <c r="E72" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="F72" s="51" t="s">
+        <v>223</v>
+      </c>
+      <c r="J72" s="57"/>
+      <c r="K72" s="54" t="str">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="L71" s="57" t="str">
+      <c r="L72" s="54" t="str">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="M71" s="58" t="str">
-        <f>IF(IFERROR(VLOOKUP($E71,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
+      <c r="M72" s="55" t="str">
+        <f>IF(IFERROR(VLOOKUP($E72,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
         <v>sh:Literal</v>
       </c>
-      <c r="N71" s="77" t="str">
+      <c r="N72" s="75" t="str">
         <f t="shared" si="10"/>
         <v>xsd:string</v>
       </c>
-      <c r="O71" s="58" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="P71" s="58"/>
-      <c r="Q71" s="77" t="str">
+      <c r="O72" s="55" t="str">
+        <f>IF($M72="sh:IRI",IF($E72&lt;&gt;"",$E72,""),"")</f>
+        <v/>
+      </c>
+      <c r="P72" s="55"/>
+      <c r="Q72" s="75" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="72" s="47" customFormat="1" ht="15">
-      <c r="A72" s="47" t="s">
-        <v>227</v>
-      </c>
-      <c r="E72" s="47"/>
-      <c r="F72" s="48"/>
-      <c r="I72" s="49"/>
-      <c r="J72" s="50"/>
-      <c r="K72" s="51"/>
-      <c r="L72" s="51"/>
-      <c r="Q72" s="49"/>
-      <c r="Y72" s="50"/>
-    </row>
-    <row r="73" s="75" customFormat="1" ht="15">
-      <c r="A73" s="53" t="str">
+    <row r="73" s="44" customFormat="1" ht="15">
+      <c r="A73" s="44" t="s">
+        <v>229</v>
+      </c>
+      <c r="E73" s="44"/>
+      <c r="F73" s="45"/>
+      <c r="I73" s="46"/>
+      <c r="J73" s="47"/>
+      <c r="K73" s="48"/>
+      <c r="L73" s="48"/>
+      <c r="M73" s="44"/>
+      <c r="O73" s="44"/>
+      <c r="Q73" s="46"/>
+      <c r="Y73" s="47"/>
+    </row>
+    <row r="74" s="73" customFormat="1" ht="15">
+      <c r="A74" s="50" t="str">
         <f t="shared" si="6"/>
-        <v>mus:P73</v>
-      </c>
-      <c r="B73" t="s">
+        <v>mus:P74</v>
+      </c>
+      <c r="B74" t="s">
         <v>77</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C74" t="s">
         <v>25</v>
       </c>
-      <c r="D73" s="52" t="s">
+      <c r="D74" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="E73" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="F73" s="54" t="s">
-        <v>173</v>
-      </c>
-      <c r="I73" s="76"/>
-      <c r="J73" s="60"/>
-      <c r="K73" s="57" t="str">
+      <c r="E74" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="F74" s="51" t="s">
+        <v>175</v>
+      </c>
+      <c r="I74" s="74"/>
+      <c r="J74" s="57"/>
+      <c r="K74" s="54" t="str">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="L73" s="57" t="str">
+      <c r="L74" s="54" t="str">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="M73" s="58" t="str">
-        <f>IF(IFERROR(VLOOKUP($E73,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
+      <c r="M74" s="55" t="str">
+        <f>IF(IFERROR(VLOOKUP($E74,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
         <v>sh:Literal</v>
       </c>
-      <c r="N73" s="77" t="str">
+      <c r="N74" s="75" t="str">
         <f t="shared" si="10"/>
         <v>xsd:string</v>
       </c>
-      <c r="O73" s="58" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="P73" s="58"/>
-      <c r="Q73" s="77" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Y73" s="78"/>
-    </row>
-    <row r="74" s="75" customFormat="1" ht="15">
-      <c r="A74" s="53" t="str">
+      <c r="O74" s="55" t="str">
+        <f>IF($M74="sh:IRI",IF($E74&lt;&gt;"",$E74,""),"")</f>
+        <v/>
+      </c>
+      <c r="P74" s="55"/>
+      <c r="Q74" s="75" t="str">
+        <f t="shared" ref="Q74:Q77" si="11">IF($M74&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E74)-1,0)=0,"","1"))</f>
+        <v/>
+      </c>
+      <c r="Y74" s="76"/>
+    </row>
+    <row r="75" s="73" customFormat="1" ht="15">
+      <c r="A75" s="50" t="str">
         <f t="shared" si="6"/>
-        <v>mus:P74</v>
-      </c>
-      <c r="B74" t="s">
+        <v>mus:P75</v>
+      </c>
+      <c r="B75" t="s">
         <v>77</v>
       </c>
-      <c r="C74" t="s">
-        <v>228</v>
-      </c>
-      <c r="D74" s="52" t="s">
+      <c r="C75" t="s">
+        <v>230</v>
+      </c>
+      <c r="D75" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="F74" s="54" t="s">
-        <v>229</v>
-      </c>
-      <c r="I74" s="76"/>
-      <c r="J74" s="60"/>
-      <c r="K74" s="57" t="str">
+      <c r="F75" s="51" t="s">
+        <v>231</v>
+      </c>
+      <c r="I75" s="74"/>
+      <c r="J75" s="57"/>
+      <c r="K75" s="54" t="str">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="L74" s="57" t="str">
+      <c r="L75" s="54" t="str">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="M74" s="58" t="str">
-        <f>IF(IFERROR(VLOOKUP($E74,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
+      <c r="M75" s="55" t="str">
+        <f>IF(IFERROR(VLOOKUP($E75,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N74" s="58" t="str">
+      <c r="N75" s="55" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="O74" s="58" t="str">
+      <c r="O75" s="55" t="str">
+        <f>IF($M75="sh:IRI",IF($E75&lt;&gt;"",$E75,""),"")</f>
+        <v/>
+      </c>
+      <c r="P75" s="55"/>
+      <c r="Q75" s="56" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="P74" s="58"/>
-      <c r="Q74" s="59" t="str">
-        <f t="shared" ref="Q74:Q76" si="12">IF($M74&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E74)-1,0)=0,"","1"))</f>
-        <v/>
-      </c>
-      <c r="Y74" s="78"/>
-    </row>
-    <row r="75" s="47" customFormat="1" ht="15">
-      <c r="A75" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="E75" s="47"/>
-      <c r="F75" s="48"/>
-      <c r="I75" s="49"/>
-      <c r="J75" s="50"/>
-      <c r="K75" s="51"/>
-      <c r="L75" s="51"/>
-      <c r="Q75" s="49"/>
-      <c r="Y75" s="50"/>
-    </row>
-    <row r="76" s="64" customFormat="1">
-      <c r="A76" s="65" t="str">
+      <c r="Y75" s="76"/>
+    </row>
+    <row r="76" s="44" customFormat="1" ht="15">
+      <c r="A76" s="44" t="s">
+        <v>232</v>
+      </c>
+      <c r="E76" s="44"/>
+      <c r="F76" s="45"/>
+      <c r="I76" s="46"/>
+      <c r="J76" s="47"/>
+      <c r="K76" s="48"/>
+      <c r="L76" s="48"/>
+      <c r="M76" s="44"/>
+      <c r="O76" s="44"/>
+      <c r="Q76" s="46"/>
+      <c r="Y76" s="47"/>
+    </row>
+    <row r="77" s="62" customFormat="1">
+      <c r="A77" s="63" t="str">
         <f t="shared" si="6"/>
-        <v>mus:P76</v>
-      </c>
-      <c r="B76" s="64" t="s">
+        <v>mus:P77</v>
+      </c>
+      <c r="B77" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="C76" s="64" t="s">
-        <v>231</v>
-      </c>
-      <c r="D76" s="52" t="s">
+      <c r="C77" s="62" t="s">
+        <v>233</v>
+      </c>
+      <c r="D77" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="E76" s="64" t="s">
-        <v>232</v>
-      </c>
-      <c r="F76" s="54" t="s">
-        <v>190</v>
-      </c>
-      <c r="G76" s="67"/>
-      <c r="H76" s="67"/>
-      <c r="I76" s="68"/>
-      <c r="J76" s="60"/>
-      <c r="K76" s="57" t="str">
+      <c r="E77" s="62" t="s">
+        <v>234</v>
+      </c>
+      <c r="F77" s="51" t="s">
+        <v>192</v>
+      </c>
+      <c r="G77" s="65"/>
+      <c r="H77" s="65"/>
+      <c r="I77" s="66"/>
+      <c r="J77" s="57"/>
+      <c r="K77" s="54" t="str">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="L76" s="57" t="str">
+      <c r="L77" s="54" t="str">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="M76" s="70" t="str">
-        <f>IF(IFERROR(VLOOKUP($E76,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
+      <c r="M77" s="68" t="str">
+        <f>IF(IFERROR(VLOOKUP($E77,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
         <v>sh:Literal</v>
       </c>
-      <c r="N76" s="79" t="str">
+      <c r="N77" s="77" t="str">
         <f t="shared" si="10"/>
         <v>xsd:gYear</v>
       </c>
-      <c r="O76" s="58" t="str">
+      <c r="O77" s="55" t="str">
+        <f>IF($M77="sh:IRI",IF($E77&lt;&gt;"",$E77,""),"")</f>
+        <v/>
+      </c>
+      <c r="P77" s="55"/>
+      <c r="Q77" s="77" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="P76" s="58"/>
-      <c r="Q76" s="79" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="Y76" s="67"/>
-    </row>
-    <row r="77" s="47" customFormat="1" ht="15">
-      <c r="A77" s="47" t="s">
-        <v>233</v>
-      </c>
-      <c r="E77" s="47"/>
-      <c r="F77" s="48"/>
-      <c r="I77" s="49"/>
-      <c r="J77" s="50"/>
-      <c r="K77" s="51"/>
-      <c r="L77" s="51"/>
-      <c r="Q77" s="49"/>
-      <c r="Y77" s="50"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="65"/>
-      <c r="B78" s="74"/>
-      <c r="D78" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="K78" s="57" t="str">
+      <c r="Y77" s="65"/>
+    </row>
+    <row r="78" s="44" customFormat="1" ht="15">
+      <c r="A78" s="44" t="s">
+        <v>235</v>
+      </c>
+      <c r="E78" s="44"/>
+      <c r="F78" s="45"/>
+      <c r="I78" s="46"/>
+      <c r="J78" s="47"/>
+      <c r="K78" s="48"/>
+      <c r="L78" s="48"/>
+      <c r="M78" s="44"/>
+      <c r="O78" s="44"/>
+      <c r="Q78" s="46"/>
+      <c r="Y78" s="47"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="63"/>
+      <c r="B79" s="72"/>
+      <c r="D79" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="K79" s="54" t="str">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="L78" s="57" t="str">
+      <c r="L79" s="54" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M78" s="70" t="str">
-        <f>IF(IFERROR(VLOOKUP($E78,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
+      <c r="M79" s="68" t="str">
+        <f>IF(IFERROR(VLOOKUP($E79,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N78" s="79" t="str">
+      <c r="N79" s="77" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="79" s="47" customFormat="1" ht="15">
-      <c r="A79" s="47" t="s">
-        <v>234</v>
-      </c>
-      <c r="E79" s="47"/>
-      <c r="F79" s="48"/>
-      <c r="I79" s="49"/>
-      <c r="J79" s="50"/>
-      <c r="K79" s="51"/>
-      <c r="L79" s="51"/>
-      <c r="Q79" s="49"/>
-      <c r="Y79" s="50"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="65"/>
-      <c r="B80" s="74"/>
-      <c r="D80" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="K80" s="57" t="str">
+    <row r="80" s="44" customFormat="1" ht="15">
+      <c r="A80" s="44" t="s">
+        <v>236</v>
+      </c>
+      <c r="E80" s="44"/>
+      <c r="F80" s="45"/>
+      <c r="I80" s="46"/>
+      <c r="J80" s="47"/>
+      <c r="K80" s="48"/>
+      <c r="L80" s="48"/>
+      <c r="M80" s="44"/>
+      <c r="Q80" s="46"/>
+      <c r="Y80" s="47"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="63"/>
+      <c r="B81" s="72"/>
+      <c r="D81" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="K81" s="54" t="str">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="L80" s="57" t="str">
+      <c r="L81" s="54" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M80" s="70" t="str">
-        <f>IF(IFERROR(VLOOKUP($E80,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
+      <c r="M81" s="68" t="str">
+        <f>IF(IFERROR(VLOOKUP($E81,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N80" s="79" t="str">
+      <c r="N81" s="77" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="81" s="47" customFormat="1" ht="15">
-      <c r="A81" s="47" t="s">
-        <v>235</v>
-      </c>
-      <c r="E81" s="47"/>
-      <c r="F81" s="48"/>
-      <c r="I81" s="49"/>
-      <c r="J81" s="50"/>
-      <c r="K81" s="51"/>
-      <c r="L81" s="51"/>
-      <c r="Q81" s="49"/>
-      <c r="Y81" s="50"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="65"/>
-      <c r="B82" s="74"/>
-      <c r="D82" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="K82" s="57" t="str">
+    <row r="82" s="44" customFormat="1" ht="15">
+      <c r="A82" s="44" t="s">
+        <v>237</v>
+      </c>
+      <c r="E82" s="44"/>
+      <c r="F82" s="45"/>
+      <c r="I82" s="46"/>
+      <c r="J82" s="47"/>
+      <c r="K82" s="48"/>
+      <c r="L82" s="48"/>
+      <c r="M82" s="44"/>
+      <c r="Q82" s="46"/>
+      <c r="Y82" s="47"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="63"/>
+      <c r="B83" s="72"/>
+      <c r="D83" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="K83" s="54" t="str">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="L82" s="57" t="str">
+      <c r="L83" s="54" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M82" s="70" t="str">
-        <f>IF(IFERROR(VLOOKUP($E82,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
+      <c r="M83" s="68" t="str">
+        <f>IF(IFERROR(VLOOKUP($E83,Catalogue!$A$2:$A$40,1,0),0)&lt;&gt;0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N82" s="79" t="str">
+      <c r="N83" s="77" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
+    <row r="84" ht="12.75"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:C1"/>
@@ -6363,7 +6422,7 @@
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B1"/>
     <hyperlink r:id="rId2" ref="F7"/>
-    <hyperlink r:id="rId3" location="U90_foresees_creation_or_performance_mode" ref="F56"/>
+    <hyperlink r:id="rId3" location="U90_foresees_creation_or_performance_mode" ref="F57"/>
   </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.78750000000000009" right="0.78750000000000009" top="1.05277777777778" bottom="1.05277777777778" header="0.78750000000000009" footer="0.78750000000000009"/>
@@ -6389,854 +6448,854 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="80" t="s">
-        <v>236</v>
-      </c>
-      <c r="E1" s="80" t="s">
-        <v>237</v>
+      <c r="A1" s="78" t="s">
+        <v>238</v>
+      </c>
+      <c r="E1" s="78" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="81" t="s">
-        <v>238</v>
+      <c r="A2" s="79" t="s">
+        <v>240</v>
       </c>
       <c r="E2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="81" t="s">
-        <v>240</v>
+      <c r="A3" s="79" t="s">
+        <v>242</v>
       </c>
       <c r="E3" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E4" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E5" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E6" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E8" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E10" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E11" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E12" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E13" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E14" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E15" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E16" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E17" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E18" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E19" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E20" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E21" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E22" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E23" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E24" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E25" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E26" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E27" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E28" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E29" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E30" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E31" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E32" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E33" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E34" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E35" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E36" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E37" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="39">
       <c r="E39" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="41">
       <c r="E41" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="44">
       <c r="E44" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="45">
       <c r="E45" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="46">
       <c r="E46" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="47">
       <c r="E47" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="48">
       <c r="E48" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="49">
       <c r="E49" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="50">
       <c r="E50" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="51">
       <c r="E51" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="52">
       <c r="E52" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="53">
       <c r="E53" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="54">
       <c r="E54" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="55">
       <c r="E55" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="56">
       <c r="E56" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="57">
       <c r="E57" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="58">
       <c r="E58" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="59">
       <c r="E59" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="60">
       <c r="E60" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="61">
       <c r="E61" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="62">
       <c r="E62" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="63">
       <c r="E63" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="64">
       <c r="E64" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="65">
       <c r="E65" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="66">
       <c r="E66" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="67">
       <c r="E67" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="68">
       <c r="E68" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="69">
       <c r="E69" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="70">
       <c r="E70" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="71">
       <c r="E71" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="72">
       <c r="E72" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="73">
       <c r="E73" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="74">
       <c r="E74" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="75">
       <c r="E75" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="76">
       <c r="E76" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="77">
       <c r="E77" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="78">
       <c r="E78" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="79">
       <c r="E79" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="80">
       <c r="E80" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="81">
       <c r="E81" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="82">
       <c r="E82" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="83">
       <c r="E83" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="84">
       <c r="E84" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="85">
       <c r="E85" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="86">
       <c r="E86" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="87">
       <c r="E87" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="88">
       <c r="E88" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="89">
       <c r="E89" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="90">
       <c r="E90" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="91">
       <c r="E91" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="92">
       <c r="E92" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="93">
       <c r="E93" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="94">
       <c r="E94" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="95">
       <c r="E95" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="96">
       <c r="E96" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="97">
       <c r="E97" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="98">
       <c r="E98" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="99">
       <c r="E99" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="100">
       <c r="E100" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="101">
       <c r="E101" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="102">
       <c r="E102" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="103">
       <c r="E103" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="104">
       <c r="E104" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="105">
       <c r="E105" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="106">
       <c r="E106" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="107">
       <c r="E107" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="108">
       <c r="E108" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="109">
       <c r="E109" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="110">
       <c r="E110" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="111">
       <c r="E111" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="112">
       <c r="E112" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="113">
       <c r="E113" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="114">
       <c r="E114" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="115">
       <c r="E115" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="116">
       <c r="E116" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="117">
       <c r="E117" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="118">
       <c r="E118" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="119">
       <c r="E119" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="120">
       <c r="E120" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="121">
       <c r="E121" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="122">
       <c r="E122" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="123">
       <c r="E123" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="124">
       <c r="E124" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="125">
       <c r="E125" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="126">
       <c r="E126" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="127">
       <c r="E127" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="128">
       <c r="E128" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="129">
       <c r="E129" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="130">
       <c r="E130" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="131">
       <c r="E131" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="132">
       <c r="E132" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="133">
       <c r="E133" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="134">
       <c r="E134" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="135">
       <c r="E135" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="136">
       <c r="E136" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="137">
       <c r="E137" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="138">
       <c r="E138" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="139">
       <c r="E139" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="140">
       <c r="E140" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="141">
       <c r="E141" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="142">
       <c r="E142" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="143">
       <c r="E143" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="144">
       <c r="E144" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="145">
       <c r="E145" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="146">
       <c r="E146" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="147">
       <c r="E147" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="148">
       <c r="E148" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>
